--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -859,13 +859,14 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="3" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -916,7 +917,9 @@
       <c r="B3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>119</v>
       </c>
@@ -932,7 +935,9 @@
       <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>119</v>
       </c>
@@ -948,7 +953,9 @@
       <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>119</v>
       </c>
@@ -964,7 +971,9 @@
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>119</v>
       </c>
@@ -980,7 +989,9 @@
       <c r="B7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>119</v>
       </c>
@@ -996,7 +1007,9 @@
       <c r="B8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>119</v>
       </c>
@@ -1012,7 +1025,9 @@
       <c r="B9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>119</v>
       </c>
@@ -1030,7 +1045,9 @@
       <c r="B10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>119</v>
       </c>
@@ -1046,7 +1063,9 @@
       <c r="B11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>119</v>
       </c>
@@ -1062,7 +1081,9 @@
       <c r="B12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>119</v>
       </c>
@@ -1078,7 +1099,9 @@
       <c r="B13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>11</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
       </c>
@@ -1096,7 +1119,9 @@
       <c r="B14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>12</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>119</v>
       </c>
@@ -1114,7 +1139,9 @@
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>13</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>119</v>
       </c>
@@ -1130,7 +1157,9 @@
       <c r="B16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>14</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>119</v>
       </c>
@@ -1146,7 +1175,9 @@
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>15</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>119</v>
       </c>
@@ -1162,7 +1193,9 @@
       <c r="B18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>119</v>
       </c>
@@ -1178,7 +1211,9 @@
       <c r="B19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>17</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>119</v>
       </c>
@@ -1194,7 +1229,9 @@
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>18</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>119</v>
       </c>
@@ -1210,7 +1247,9 @@
       <c r="B21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>19</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>119</v>
       </c>
@@ -1226,7 +1265,9 @@
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>20</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>119</v>
       </c>
@@ -1242,7 +1283,9 @@
       <c r="B23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>21</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>119</v>
       </c>
@@ -1258,7 +1301,9 @@
       <c r="B24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4">
+        <v>22</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>119</v>
       </c>
@@ -1274,7 +1319,9 @@
       <c r="B25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>23</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>119</v>
       </c>
@@ -1290,7 +1337,9 @@
       <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>24</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>119</v>
       </c>
@@ -1306,7 +1355,9 @@
       <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4">
+        <v>25</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>119</v>
       </c>
@@ -1324,7 +1375,9 @@
       <c r="B28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>26</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
@@ -1340,7 +1393,9 @@
       <c r="B29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>27</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>119</v>
       </c>
@@ -1356,7 +1411,9 @@
       <c r="B30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>28</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>119</v>
       </c>
@@ -1374,7 +1431,9 @@
       <c r="B31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>29</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>119</v>
       </c>
@@ -1392,7 +1451,9 @@
       <c r="B32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>30</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>119</v>
       </c>
@@ -1410,7 +1471,9 @@
       <c r="B33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4">
+        <v>31</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>119</v>
       </c>
@@ -1428,7 +1491,9 @@
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4">
+        <v>32</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>119</v>
       </c>
@@ -1446,7 +1511,9 @@
       <c r="B35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4">
+        <v>33</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>119</v>
       </c>
@@ -1462,7 +1529,9 @@
       <c r="B36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4">
+        <v>34</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>119</v>
       </c>
@@ -1478,7 +1547,9 @@
       <c r="B37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4">
+        <v>35</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>119</v>
       </c>
@@ -1496,7 +1567,9 @@
       <c r="B38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="4">
+        <v>36</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>119</v>
       </c>
@@ -1514,7 +1587,9 @@
       <c r="B39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4">
+        <v>37</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>119</v>
       </c>
@@ -1530,7 +1605,9 @@
       <c r="B40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4">
+        <v>38</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>119</v>
       </c>
@@ -1548,7 +1625,9 @@
       <c r="B41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="4">
+        <v>39</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>119</v>
       </c>
@@ -1566,7 +1645,9 @@
       <c r="B42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="4">
+        <v>40</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>119</v>
       </c>
@@ -1584,7 +1665,9 @@
       <c r="B43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="4">
+        <v>41</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
@@ -1602,7 +1685,9 @@
       <c r="B44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="4">
+        <v>42</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>119</v>
       </c>
@@ -1618,7 +1703,9 @@
       <c r="B45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="4">
+        <v>43</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>119</v>
       </c>
@@ -1636,7 +1723,9 @@
       <c r="B46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="4">
+        <v>44</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>119</v>
       </c>
@@ -1654,7 +1743,9 @@
       <c r="B47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="4">
+        <v>45</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>119</v>
       </c>
@@ -1672,7 +1763,9 @@
       <c r="B48" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="4">
+        <v>46</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>119</v>
       </c>
@@ -1688,7 +1781,9 @@
       <c r="B49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="4">
+        <v>47</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>119</v>
       </c>
@@ -1704,7 +1799,9 @@
       <c r="B50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="4">
+        <v>48</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>119</v>
       </c>
@@ -1720,7 +1817,9 @@
       <c r="B51" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="4">
+        <v>49</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>119</v>
       </c>
@@ -1738,7 +1837,9 @@
       <c r="B52" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4">
+        <v>50</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>119</v>
       </c>
@@ -1754,7 +1855,9 @@
       <c r="B53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="4">
+        <v>51</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>119</v>
       </c>
@@ -1770,7 +1873,9 @@
       <c r="B54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4">
+        <v>52</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>119</v>
       </c>
@@ -1786,7 +1891,9 @@
       <c r="B55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="4">
+        <v>53</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>119</v>
       </c>
@@ -1802,7 +1909,9 @@
       <c r="B56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="4">
+        <v>54</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>119</v>
       </c>
@@ -1820,7 +1929,9 @@
       <c r="B57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4">
+        <v>55</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>119</v>
       </c>
@@ -1836,7 +1947,9 @@
       <c r="B58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="4">
+        <v>56</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>119</v>
       </c>
@@ -1854,7 +1967,9 @@
       <c r="B59" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="4">
+        <v>57</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>119</v>
       </c>
@@ -1870,7 +1985,9 @@
       <c r="B60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="4">
+        <v>58</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>119</v>
       </c>
@@ -1886,7 +2003,9 @@
       <c r="B61" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="4">
+        <v>59</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>119</v>
       </c>
@@ -1904,7 +2023,9 @@
       <c r="B62" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4">
+        <v>60</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
       </c>
@@ -1920,7 +2041,9 @@
       <c r="B63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="4">
+        <v>61</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>119</v>
       </c>
@@ -1936,7 +2059,9 @@
       <c r="B64" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4">
+        <v>62</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>119</v>
       </c>
@@ -1952,7 +2077,9 @@
       <c r="B65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4">
+        <v>63</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>119</v>
       </c>
@@ -1970,7 +2097,9 @@
       <c r="B66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="4">
+        <v>64</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>119</v>
       </c>
@@ -1986,7 +2115,9 @@
       <c r="B67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4">
+        <v>65</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>119</v>
       </c>
@@ -2004,7 +2135,9 @@
       <c r="B68" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="4">
+        <v>66</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>119</v>
       </c>
@@ -2020,7 +2153,9 @@
       <c r="B69" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="4">
+        <v>67</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>119</v>
       </c>
@@ -2036,7 +2171,9 @@
       <c r="B70" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4">
+        <v>68</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>119</v>
       </c>
@@ -2054,7 +2191,9 @@
       <c r="B71" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="4">
+        <v>69</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>119</v>
       </c>
@@ -2072,7 +2211,9 @@
       <c r="B72" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="4">
+        <v>70</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>119</v>
       </c>
@@ -2090,7 +2231,9 @@
       <c r="B73" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="4">
+        <v>71</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>119</v>
       </c>
@@ -2106,7 +2249,9 @@
       <c r="B74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4">
+        <v>72</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>119</v>
       </c>
@@ -2122,7 +2267,9 @@
       <c r="B75" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="4">
+        <v>73</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>119</v>
       </c>
@@ -2140,7 +2287,9 @@
       <c r="B76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="4"/>
+      <c r="C76" s="4">
+        <v>74</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>119</v>
       </c>
@@ -2158,7 +2307,9 @@
       <c r="B77" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="4">
+        <v>75</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>119</v>
       </c>
@@ -2176,7 +2327,9 @@
       <c r="B78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="4"/>
+      <c r="C78" s="4">
+        <v>76</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>119</v>
       </c>
@@ -2192,7 +2345,9 @@
       <c r="B79" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="4"/>
+      <c r="C79" s="4">
+        <v>77</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>119</v>
       </c>
@@ -2208,7 +2363,9 @@
       <c r="B80" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="4"/>
+      <c r="C80" s="4">
+        <v>78</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>119</v>
       </c>
@@ -2224,7 +2381,9 @@
       <c r="B81" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4">
+        <v>79</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>119</v>
       </c>
@@ -2240,7 +2399,9 @@
       <c r="B82" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4">
+        <v>80</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>119</v>
       </c>
@@ -2256,7 +2417,9 @@
       <c r="B83" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4">
+        <v>81</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>119</v>
       </c>
@@ -2272,7 +2435,9 @@
       <c r="B84" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4">
+        <v>82</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>119</v>
       </c>
@@ -2288,7 +2453,9 @@
       <c r="B85" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4">
+        <v>83</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>119</v>
       </c>
@@ -2304,7 +2471,9 @@
       <c r="B86" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4">
+        <v>84</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>119</v>
       </c>
@@ -2320,7 +2489,9 @@
       <c r="B87" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="4">
+        <v>85</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>119</v>
       </c>
@@ -2336,7 +2507,9 @@
       <c r="B88" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4">
+        <v>86</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>119</v>
       </c>
@@ -2352,7 +2525,9 @@
       <c r="B89" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4">
+        <v>87</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>119</v>
       </c>
@@ -2368,7 +2543,9 @@
       <c r="B90" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4">
+        <v>88</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>119</v>
       </c>
@@ -2384,7 +2561,9 @@
       <c r="B91" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4">
+        <v>89</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>119</v>
       </c>
@@ -2400,7 +2579,9 @@
       <c r="B92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="4">
+        <v>90</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>119</v>
       </c>
@@ -2416,7 +2597,9 @@
       <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4">
+        <v>91</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>119</v>
       </c>
@@ -2432,7 +2615,9 @@
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4">
+        <v>92</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>119</v>
       </c>
@@ -2448,7 +2633,9 @@
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="4"/>
+      <c r="C95" s="4">
+        <v>93</v>
+      </c>
       <c r="D95" s="1" t="s">
         <v>119</v>
       </c>
@@ -2464,7 +2651,9 @@
       <c r="B96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4">
+        <v>94</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>119</v>
       </c>
@@ -2480,7 +2669,9 @@
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4">
+        <v>95</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>119</v>
       </c>
@@ -2496,7 +2687,9 @@
       <c r="B98" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="4">
+        <v>96</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>119</v>
       </c>
@@ -2512,7 +2705,9 @@
       <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="4">
+        <v>97</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>119</v>
       </c>

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -859,7 +859,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -918,7 +918,7 @@
         <v>107</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>44143</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>119</v>
@@ -936,7 +936,7 @@
         <v>108</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>44144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>119</v>
@@ -954,7 +954,7 @@
         <v>108</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>44145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>119</v>
@@ -972,7 +972,7 @@
         <v>108</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>44146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>119</v>
@@ -990,7 +990,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>44147</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>119</v>
@@ -1008,7 +1008,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>44148</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>119</v>
@@ -1026,7 +1026,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="4">
-        <v>7</v>
+        <v>44149</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>119</v>
@@ -1046,7 +1046,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="4">
-        <v>8</v>
+        <v>44150</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>119</v>
@@ -1064,7 +1064,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="4">
-        <v>9</v>
+        <v>44151</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>119</v>
@@ -1082,7 +1082,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="4">
-        <v>10</v>
+        <v>44152</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>119</v>
@@ -1100,7 +1100,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="4">
-        <v>11</v>
+        <v>44153</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
@@ -1120,7 +1120,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="4">
-        <v>12</v>
+        <v>44154</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>119</v>
@@ -1140,7 +1140,7 @@
         <v>108</v>
       </c>
       <c r="C15" s="4">
-        <v>13</v>
+        <v>44155</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>119</v>
@@ -1158,7 +1158,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="4">
-        <v>14</v>
+        <v>44156</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>119</v>
@@ -1176,7 +1176,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="4">
-        <v>15</v>
+        <v>44157</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>119</v>
@@ -1194,7 +1194,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="4">
-        <v>16</v>
+        <v>44158</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>119</v>
@@ -1212,7 +1212,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="4">
-        <v>17</v>
+        <v>44159</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>119</v>
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="4">
-        <v>18</v>
+        <v>44160</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>119</v>
@@ -1248,7 +1248,7 @@
         <v>105</v>
       </c>
       <c r="C21" s="4">
-        <v>19</v>
+        <v>44161</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>119</v>
@@ -1266,7 +1266,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="4">
-        <v>20</v>
+        <v>44162</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>119</v>
@@ -1284,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="C23" s="4">
-        <v>21</v>
+        <v>44163</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>119</v>
@@ -1302,7 +1302,7 @@
         <v>109</v>
       </c>
       <c r="C24" s="4">
-        <v>22</v>
+        <v>44164</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>119</v>
@@ -1320,7 +1320,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="4">
-        <v>23</v>
+        <v>44165</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>119</v>
@@ -1338,7 +1338,7 @@
         <v>109</v>
       </c>
       <c r="C26" s="4">
-        <v>24</v>
+        <v>44166</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>119</v>
@@ -1356,7 +1356,7 @@
         <v>110</v>
       </c>
       <c r="C27" s="4">
-        <v>25</v>
+        <v>44167</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>119</v>
@@ -1376,7 +1376,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="4">
-        <v>26</v>
+        <v>44168</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>119</v>
@@ -1394,7 +1394,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="4">
-        <v>27</v>
+        <v>44169</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>119</v>
@@ -1412,7 +1412,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="4">
-        <v>28</v>
+        <v>44170</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>119</v>
@@ -1432,7 +1432,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="4">
-        <v>29</v>
+        <v>44171</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>119</v>
@@ -1452,7 +1452,7 @@
         <v>110</v>
       </c>
       <c r="C32" s="4">
-        <v>30</v>
+        <v>44172</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>119</v>
@@ -1472,7 +1472,7 @@
         <v>110</v>
       </c>
       <c r="C33" s="4">
-        <v>31</v>
+        <v>44173</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>119</v>
@@ -1492,7 +1492,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="4">
-        <v>32</v>
+        <v>44174</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>119</v>
@@ -1512,7 +1512,7 @@
         <v>110</v>
       </c>
       <c r="C35" s="4">
-        <v>33</v>
+        <v>44175</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>119</v>
@@ -1530,7 +1530,7 @@
         <v>112</v>
       </c>
       <c r="C36" s="4">
-        <v>34</v>
+        <v>44176</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>119</v>
@@ -1548,7 +1548,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="4">
-        <v>35</v>
+        <v>44177</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>119</v>
@@ -1568,7 +1568,7 @@
         <v>112</v>
       </c>
       <c r="C38" s="4">
-        <v>36</v>
+        <v>44178</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>119</v>
@@ -1588,7 +1588,7 @@
         <v>112</v>
       </c>
       <c r="C39" s="4">
-        <v>37</v>
+        <v>44179</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>119</v>
@@ -1606,7 +1606,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="4">
-        <v>38</v>
+        <v>44180</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>119</v>
@@ -1626,7 +1626,7 @@
         <v>112</v>
       </c>
       <c r="C41" s="4">
-        <v>39</v>
+        <v>44181</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>119</v>
@@ -1646,7 +1646,7 @@
         <v>112</v>
       </c>
       <c r="C42" s="4">
-        <v>40</v>
+        <v>44182</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>119</v>
@@ -1666,7 +1666,7 @@
         <v>112</v>
       </c>
       <c r="C43" s="4">
-        <v>41</v>
+        <v>44183</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>119</v>
@@ -1686,7 +1686,7 @@
         <v>112</v>
       </c>
       <c r="C44" s="4">
-        <v>42</v>
+        <v>44184</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>119</v>
@@ -1704,7 +1704,7 @@
         <v>112</v>
       </c>
       <c r="C45" s="4">
-        <v>43</v>
+        <v>44185</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>119</v>
@@ -1724,7 +1724,7 @@
         <v>112</v>
       </c>
       <c r="C46" s="4">
-        <v>44</v>
+        <v>44186</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>119</v>
@@ -1744,7 +1744,7 @@
         <v>112</v>
       </c>
       <c r="C47" s="4">
-        <v>45</v>
+        <v>44187</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>119</v>
@@ -1764,7 +1764,7 @@
         <v>112</v>
       </c>
       <c r="C48" s="4">
-        <v>46</v>
+        <v>44188</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>119</v>
@@ -1782,7 +1782,7 @@
         <v>112</v>
       </c>
       <c r="C49" s="4">
-        <v>47</v>
+        <v>44189</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>119</v>
@@ -1800,7 +1800,7 @@
         <v>112</v>
       </c>
       <c r="C50" s="4">
-        <v>48</v>
+        <v>44190</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>119</v>
@@ -1818,7 +1818,7 @@
         <v>112</v>
       </c>
       <c r="C51" s="4">
-        <v>49</v>
+        <v>44191</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>119</v>
@@ -1838,7 +1838,7 @@
         <v>113</v>
       </c>
       <c r="C52" s="4">
-        <v>50</v>
+        <v>44192</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>119</v>
@@ -1856,7 +1856,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="4">
-        <v>51</v>
+        <v>44193</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>119</v>
@@ -1874,7 +1874,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="4">
-        <v>52</v>
+        <v>44194</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>119</v>
@@ -1892,7 +1892,7 @@
         <v>113</v>
       </c>
       <c r="C55" s="4">
-        <v>53</v>
+        <v>44195</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>119</v>
@@ -1910,7 +1910,7 @@
         <v>113</v>
       </c>
       <c r="C56" s="4">
-        <v>54</v>
+        <v>44196</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>119</v>
@@ -1930,7 +1930,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="4">
-        <v>55</v>
+        <v>44197</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>119</v>
@@ -1948,7 +1948,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="4">
-        <v>56</v>
+        <v>44198</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>119</v>
@@ -1968,7 +1968,7 @@
         <v>113</v>
       </c>
       <c r="C59" s="4">
-        <v>57</v>
+        <v>44199</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>119</v>
@@ -1986,7 +1986,7 @@
         <v>113</v>
       </c>
       <c r="C60" s="4">
-        <v>58</v>
+        <v>44200</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>119</v>
@@ -2004,7 +2004,7 @@
         <v>113</v>
       </c>
       <c r="C61" s="4">
-        <v>59</v>
+        <v>44201</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>119</v>
@@ -2024,7 +2024,7 @@
         <v>113</v>
       </c>
       <c r="C62" s="4">
-        <v>60</v>
+        <v>44202</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
@@ -2042,7 +2042,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="4">
-        <v>61</v>
+        <v>44203</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>119</v>
@@ -2060,7 +2060,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="4">
-        <v>62</v>
+        <v>44204</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>119</v>
@@ -2078,7 +2078,7 @@
         <v>113</v>
       </c>
       <c r="C65" s="4">
-        <v>63</v>
+        <v>44205</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>119</v>
@@ -2098,7 +2098,7 @@
         <v>113</v>
       </c>
       <c r="C66" s="4">
-        <v>64</v>
+        <v>44206</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>119</v>
@@ -2116,7 +2116,7 @@
         <v>113</v>
       </c>
       <c r="C67" s="4">
-        <v>65</v>
+        <v>44207</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>119</v>
@@ -2136,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="C68" s="4">
-        <v>66</v>
+        <v>44208</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>119</v>
@@ -2154,7 +2154,7 @@
         <v>113</v>
       </c>
       <c r="C69" s="4">
-        <v>67</v>
+        <v>44209</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>119</v>
@@ -2172,7 +2172,7 @@
         <v>113</v>
       </c>
       <c r="C70" s="4">
-        <v>68</v>
+        <v>44210</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>119</v>
@@ -2192,7 +2192,7 @@
         <v>113</v>
       </c>
       <c r="C71" s="4">
-        <v>69</v>
+        <v>44211</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>119</v>
@@ -2212,7 +2212,7 @@
         <v>113</v>
       </c>
       <c r="C72" s="4">
-        <v>70</v>
+        <v>44212</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>119</v>
@@ -2232,7 +2232,7 @@
         <v>113</v>
       </c>
       <c r="C73" s="4">
-        <v>71</v>
+        <v>44213</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>119</v>
@@ -2250,7 +2250,7 @@
         <v>113</v>
       </c>
       <c r="C74" s="4">
-        <v>72</v>
+        <v>44214</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>119</v>
@@ -2268,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="C75" s="4">
-        <v>73</v>
+        <v>44215</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>119</v>
@@ -2288,7 +2288,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="4">
-        <v>74</v>
+        <v>44216</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>119</v>
@@ -2308,7 +2308,7 @@
         <v>113</v>
       </c>
       <c r="C77" s="4">
-        <v>75</v>
+        <v>44217</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>119</v>
@@ -2328,7 +2328,7 @@
         <v>113</v>
       </c>
       <c r="C78" s="4">
-        <v>76</v>
+        <v>44218</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>119</v>
@@ -2346,7 +2346,7 @@
         <v>111</v>
       </c>
       <c r="C79" s="4">
-        <v>77</v>
+        <v>44219</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>119</v>
@@ -2364,7 +2364,7 @@
         <v>106</v>
       </c>
       <c r="C80" s="4">
-        <v>78</v>
+        <v>44220</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>119</v>
@@ -2382,7 +2382,7 @@
         <v>114</v>
       </c>
       <c r="C81" s="4">
-        <v>79</v>
+        <v>44221</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>119</v>
@@ -2400,7 +2400,7 @@
         <v>114</v>
       </c>
       <c r="C82" s="4">
-        <v>80</v>
+        <v>44222</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>119</v>
@@ -2418,7 +2418,7 @@
         <v>114</v>
       </c>
       <c r="C83" s="4">
-        <v>81</v>
+        <v>44223</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>119</v>
@@ -2436,7 +2436,7 @@
         <v>114</v>
       </c>
       <c r="C84" s="4">
-        <v>82</v>
+        <v>44224</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>119</v>
@@ -2454,7 +2454,7 @@
         <v>114</v>
       </c>
       <c r="C85" s="4">
-        <v>83</v>
+        <v>44225</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>119</v>
@@ -2472,7 +2472,7 @@
         <v>114</v>
       </c>
       <c r="C86" s="4">
-        <v>84</v>
+        <v>44226</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>119</v>
@@ -2490,7 +2490,7 @@
         <v>114</v>
       </c>
       <c r="C87" s="4">
-        <v>85</v>
+        <v>44227</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>119</v>
@@ -2508,7 +2508,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="4">
-        <v>86</v>
+        <v>44228</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>119</v>
@@ -2526,7 +2526,7 @@
         <v>114</v>
       </c>
       <c r="C89" s="4">
-        <v>87</v>
+        <v>44229</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>119</v>
@@ -2544,7 +2544,7 @@
         <v>114</v>
       </c>
       <c r="C90" s="4">
-        <v>88</v>
+        <v>44230</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>119</v>
@@ -2562,7 +2562,7 @@
         <v>114</v>
       </c>
       <c r="C91" s="4">
-        <v>89</v>
+        <v>44231</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>119</v>
@@ -2580,7 +2580,7 @@
         <v>115</v>
       </c>
       <c r="C92" s="4">
-        <v>90</v>
+        <v>44232</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>119</v>
@@ -2598,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="4">
-        <v>91</v>
+        <v>44233</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>119</v>
@@ -2616,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="4">
-        <v>92</v>
+        <v>44234</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>119</v>
@@ -2634,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="4">
-        <v>93</v>
+        <v>44235</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>119</v>
@@ -2652,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="4">
-        <v>94</v>
+        <v>44236</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>119</v>
@@ -2670,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="4">
-        <v>95</v>
+        <v>44237</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>119</v>
@@ -2688,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="4">
-        <v>96</v>
+        <v>44238</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>119</v>
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="4">
-        <v>97</v>
+        <v>44239</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>119</v>

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -358,9 +358,6 @@
     <t>Şoför</t>
   </si>
   <si>
-    <t>Kadastro Müdür Yardımcısı</t>
-  </si>
-  <si>
     <t>K.Mühendisi</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>Sicil</t>
+  </si>
+  <si>
+    <t>Kadastro Müdür Yrd.</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -874,22 +874,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
@@ -903,7 +903,7 @@
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -915,13 +915,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4">
         <v>44143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -933,13 +933,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4">
         <v>44144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -951,13 +951,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4">
         <v>44145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -969,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4">
         <v>44146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -987,13 +987,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4">
         <v>44147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -1005,13 +1005,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4">
         <v>44148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -1023,13 +1023,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4">
         <v>44149</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>103</v>
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4">
         <v>44150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1061,13 +1061,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4">
         <v>44151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1079,13 +1079,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4">
         <v>44152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -1097,13 +1097,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4">
         <v>44153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>100</v>
@@ -1117,13 +1117,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4">
         <v>44154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>102</v>
@@ -1137,13 +1137,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="4">
         <v>44155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -1155,13 +1155,13 @@
         <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="4">
         <v>44156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -1173,13 +1173,13 @@
         <v>91</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4">
         <v>44157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1197,7 +1197,7 @@
         <v>44158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1215,7 +1215,7 @@
         <v>44159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1233,7 +1233,7 @@
         <v>44160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -1251,7 +1251,7 @@
         <v>44161</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -1269,7 +1269,7 @@
         <v>44162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -1281,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4">
         <v>44163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -1299,13 +1299,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4">
         <v>44164</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1317,13 +1317,13 @@
         <v>55</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="4">
         <v>44165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1335,13 +1335,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4">
         <v>44166</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1353,13 +1353,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4">
         <v>44167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>101</v>
@@ -1373,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4">
         <v>44168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -1391,13 +1391,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4">
         <v>44169</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
@@ -1409,13 +1409,13 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4">
         <v>44170</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>101</v>
@@ -1429,13 +1429,13 @@
         <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4">
         <v>44171</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>102</v>
@@ -1449,13 +1449,13 @@
         <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4">
         <v>44172</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>100</v>
@@ -1469,13 +1469,13 @@
         <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4">
         <v>44173</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>100</v>
@@ -1489,13 +1489,13 @@
         <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4">
         <v>44174</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>100</v>
@@ -1509,13 +1509,13 @@
         <v>93</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4">
         <v>44175</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
@@ -1527,13 +1527,13 @@
         <v>97</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4">
         <v>44176</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
@@ -1545,13 +1545,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="4">
         <v>44177</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>99</v>
@@ -1565,13 +1565,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4">
         <v>44178</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>100</v>
@@ -1585,13 +1585,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4">
         <v>44179</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
@@ -1603,13 +1603,13 @@
         <v>14</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4">
         <v>44180</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>100</v>
@@ -1623,13 +1623,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4">
         <v>44181</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>101</v>
@@ -1643,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4">
         <v>44182</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>101</v>
@@ -1663,13 +1663,13 @@
         <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4">
         <v>44183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>102</v>
@@ -1683,13 +1683,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="4">
         <v>44184</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
@@ -1701,13 +1701,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4">
         <v>44185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>100</v>
@@ -1721,13 +1721,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4">
         <v>44186</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>101</v>
@@ -1741,13 +1741,13 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="4">
         <v>44187</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>102</v>
@@ -1761,13 +1761,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="4">
         <v>44188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
@@ -1779,13 +1779,13 @@
         <v>67</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="4">
         <v>44189</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
@@ -1797,13 +1797,13 @@
         <v>89</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4">
         <v>44190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
@@ -1815,13 +1815,13 @@
         <v>95</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4">
         <v>44191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>99</v>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="4">
         <v>44192</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
@@ -1853,13 +1853,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4">
         <v>44193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1">
@@ -1871,13 +1871,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4">
         <v>44194</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1">
@@ -1889,13 +1889,13 @@
         <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4">
         <v>44195</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
@@ -1907,13 +1907,13 @@
         <v>18</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4">
         <v>44196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>101</v>
@@ -1927,13 +1927,13 @@
         <v>30</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="4">
         <v>44197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
@@ -1945,13 +1945,13 @@
         <v>34</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="4">
         <v>44198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>102</v>
@@ -1965,13 +1965,13 @@
         <v>46</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="4">
         <v>44199</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
@@ -1983,13 +1983,13 @@
         <v>48</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="4">
         <v>44200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
@@ -2001,13 +2001,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="4">
         <v>44201</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>100</v>
@@ -2021,13 +2021,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4">
         <v>44202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
@@ -2039,13 +2039,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4">
         <v>44203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -2057,13 +2057,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="4">
         <v>44204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
@@ -2075,13 +2075,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4">
         <v>44205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>100</v>
@@ -2095,13 +2095,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="4">
         <v>44206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="4">
         <v>44207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>99</v>
@@ -2133,13 +2133,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="4">
         <v>44208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
@@ -2151,13 +2151,13 @@
         <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="4">
         <v>44209</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="4">
         <v>44210</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>102</v>
@@ -2189,13 +2189,13 @@
         <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4">
         <v>44211</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>101</v>
@@ -2209,13 +2209,13 @@
         <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="4">
         <v>44212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>100</v>
@@ -2229,13 +2229,13 @@
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4">
         <v>44213</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
@@ -2247,13 +2247,13 @@
         <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" s="4">
         <v>44214</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="4">
         <v>44215</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>101</v>
@@ -2285,13 +2285,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="4">
         <v>44216</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>100</v>
@@ -2305,13 +2305,13 @@
         <v>88</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4">
         <v>44217</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
@@ -2325,13 +2325,13 @@
         <v>90</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="4">
         <v>44218</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -2343,13 +2343,13 @@
         <v>96</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="4">
         <v>44219</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
@@ -2367,7 +2367,7 @@
         <v>44220</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
@@ -2379,13 +2379,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" s="4">
         <v>44221</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1">
@@ -2397,13 +2397,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="4">
         <v>44222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1">
@@ -2415,13 +2415,13 @@
         <v>12</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="4">
         <v>44223</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1">
@@ -2433,13 +2433,13 @@
         <v>23</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="4">
         <v>44224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1">
@@ -2451,13 +2451,13 @@
         <v>24</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="4">
         <v>44225</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1">
@@ -2469,13 +2469,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="4">
         <v>44226</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1">
@@ -2487,13 +2487,13 @@
         <v>38</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" s="4">
         <v>44227</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1">
@@ -2505,13 +2505,13 @@
         <v>49</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" s="4">
         <v>44228</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1">
@@ -2523,13 +2523,13 @@
         <v>69</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" s="4">
         <v>44229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1">
@@ -2541,13 +2541,13 @@
         <v>77</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" s="4">
         <v>44230</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1">
@@ -2559,13 +2559,13 @@
         <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="4">
         <v>44231</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1">
@@ -2577,13 +2577,13 @@
         <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" s="4">
         <v>44232</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
@@ -2601,7 +2601,7 @@
         <v>44233</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
@@ -2619,7 +2619,7 @@
         <v>44234</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
@@ -2637,7 +2637,7 @@
         <v>44235</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
@@ -2655,7 +2655,7 @@
         <v>44236</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
@@ -2673,7 +2673,7 @@
         <v>44237</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
@@ -2691,7 +2691,7 @@
         <v>44238</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
@@ -2709,7 +2709,7 @@
         <v>44239</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1">

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\mersin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B987FA4-9663-4845-80C0-84AD0691C301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="122">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -344,9 +334,6 @@
   </si>
   <si>
     <t>ANAMUR</t>
-  </si>
-  <si>
-    <t>ATAŞEHİR(İSTANBUL Kadastro Müdürlüğü) GEÇİCİ GÖREV</t>
   </si>
   <si>
     <t>Kadastro Müdürü</t>
@@ -409,8 +396,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,12 +409,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
@@ -446,19 +427,32 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -502,25 +496,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,255 +852,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A26" sqref="A4:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3">
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>4242801003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3">
         <v>44143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>3242801121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1">
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3">
         <v>44144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3242801082</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3">
         <v>44145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>3242801200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29.25" thickBot="1">
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3">
         <v>44146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>3242801115</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3">
         <v>44147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>3862801033</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3">
         <v>44148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>3242801533</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.5" thickBot="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="7">
         <v>44149</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>2162801893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="3">
         <v>44150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>3242801114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3">
         <v>44151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>2322802252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="3">
         <v>44152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>3242801117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3">
         <v>44153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>100</v>
@@ -1112,18 +1107,18 @@
         <v>3242801532</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3">
         <v>44154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>102</v>
@@ -1132,234 +1127,234 @@
         <v>3242801360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="3">
         <v>44155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>3242802024</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3">
         <v>44156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>3222801189</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3">
         <v>44157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>3242801193</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3">
         <v>44158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>3242801122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" thickBot="1">
+    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="3">
         <v>44159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>3242801185</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="3">
         <v>44160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>3242801071</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="3">
         <v>44161</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>3242801201</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3">
         <v>44162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>3242801114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3">
         <v>44163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>3242801123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="3">
         <v>44164</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>3242801114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1">
+    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="3">
         <v>44165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>3242801188</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="3">
         <v>44166</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>3242802018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3">
         <v>44167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>101</v>
@@ -1368,54 +1363,54 @@
         <v>3242801084</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29.25" thickBot="1">
+    <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3">
         <v>44168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>3222801235</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="3">
         <v>44169</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>3242801130</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3">
         <v>44170</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>101</v>
@@ -1424,18 +1419,18 @@
         <v>3242801120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="3">
         <v>44171</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>102</v>
@@ -1444,18 +1439,18 @@
         <v>3242801365</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3">
         <v>44172</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>100</v>
@@ -1464,18 +1459,18 @@
         <v>3242801538</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3">
         <v>44173</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>100</v>
@@ -1484,18 +1479,18 @@
         <v>3242801537</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="3">
         <v>44174</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>100</v>
@@ -1504,54 +1499,54 @@
         <v>3242801535</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="3">
         <v>44175</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
         <v>3242801197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29.25" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3">
         <v>44176</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
         <v>3242801546</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="3">
         <v>44177</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>99</v>
@@ -1560,18 +1555,18 @@
         <v>3242801167</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="3">
         <v>44178</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>100</v>
@@ -1580,36 +1575,36 @@
         <v>3242801542</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3">
         <v>44179</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
         <v>3242801081</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="3">
         <v>44180</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>100</v>
@@ -1618,18 +1613,18 @@
         <v>3242801543</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="3">
         <v>44181</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>101</v>
@@ -1638,18 +1633,18 @@
         <v>3242801086</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="3">
         <v>44182</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>101</v>
@@ -1658,18 +1653,18 @@
         <v>3242801078</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3">
         <v>44183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>102</v>
@@ -1678,36 +1673,36 @@
         <v>3242801370</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="3">
         <v>44184</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
         <v>3242801131</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="3">
         <v>44185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>100</v>
@@ -1716,18 +1711,18 @@
         <v>3242801541</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="3">
         <v>44186</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>101</v>
@@ -1736,18 +1731,18 @@
         <v>3242802026</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="3">
         <v>44187</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>102</v>
@@ -1756,72 +1751,72 @@
         <v>3242801373</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="3">
         <v>44188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
         <v>3242802027</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="3">
         <v>44189</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
         <v>3242801192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="3">
         <v>44190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
         <v>3242801134</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="3">
         <v>44191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>99</v>
@@ -1830,90 +1825,90 @@
         <v>3242801168</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="3">
         <v>44192</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
         <v>3242801135</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.25" thickBot="1">
+    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="3">
         <v>44193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1">
         <v>2282801056</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="3">
         <v>44194</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1">
         <v>3242801190</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="3">
         <v>44195</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
         <v>3242801129</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="3">
         <v>44196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>101</v>
@@ -1922,36 +1917,36 @@
         <v>3242801289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="3">
         <v>44197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
         <v>3242801133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="3">
         <v>44198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>102</v>
@@ -1960,54 +1955,54 @@
         <v>3242801371</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="3">
         <v>44199</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
         <v>3242801189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="3">
         <v>44200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
         <v>3242801187</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="3">
         <v>44201</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>100</v>
@@ -2016,72 +2011,72 @@
         <v>3242801549</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="3">
         <v>44202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
         <v>3242801123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="3">
         <v>44203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
         <v>3242801136</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="3">
         <v>44204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
         <v>3242801191</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="3">
         <v>44205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>100</v>
@@ -2090,36 +2085,36 @@
         <v>3242801540</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="B66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="3">
         <v>44206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
         <v>3242801116</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="4">
+      <c r="B67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="3">
         <v>44207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>99</v>
@@ -2128,54 +2123,54 @@
         <v>3242801169</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="3">
         <v>44208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
         <v>3242801132</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="3">
         <v>44209</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1">
         <v>3242801188</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="4">
+      <c r="B70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="3">
         <v>44210</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>102</v>
@@ -2184,18 +2179,18 @@
         <v>3242801375</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="B71" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="3">
         <v>44211</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>101</v>
@@ -2204,18 +2199,18 @@
         <v>3242801077</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="B72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="3">
         <v>44212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>100</v>
@@ -2224,54 +2219,54 @@
         <v>3242801540</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="B73" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="3">
         <v>44213</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
         <v>3242801186</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="B74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="3">
         <v>44214</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
         <v>3242801126</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B75" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="3">
         <v>44215</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>101</v>
@@ -2280,18 +2275,18 @@
         <v>3242801074</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="B76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="3">
         <v>44216</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>100</v>
@@ -2300,18 +2295,18 @@
         <v>3242801547</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="4">
+      <c r="B77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="3">
         <v>44217</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
@@ -2320,396 +2315,396 @@
         <v>3242801376</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="3">
         <v>44218</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
         <v>3242802017</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="4">
+      <c r="B79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="3">
         <v>44219</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
         <v>3242801202</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="3">
         <v>44220</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
         <v>3242802019</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="B81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="3">
         <v>44221</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1">
         <v>3242801548</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="4">
+      <c r="B82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="3">
         <v>44222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1">
         <v>3242801076</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="B83" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="3">
         <v>44223</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1">
         <v>3242801536</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="B84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="3">
         <v>44224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1">
         <v>3242802026</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="4">
+      <c r="B85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="3">
         <v>44225</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1">
         <v>3242801188</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="B86" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="3">
         <v>44226</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1">
         <v>3242801085</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B87" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="3">
         <v>44227</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1">
         <v>3242801176</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="B88" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="3">
         <v>44228</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1">
         <v>3242802029</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="B89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="3">
         <v>44229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1">
         <v>3242801539</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="3">
         <v>44230</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1">
         <v>3242801122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="4">
+      <c r="B91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="3">
         <v>44231</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1">
         <v>3242801100</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="4">
+        <v>113</v>
+      </c>
+      <c r="C92" s="3">
         <v>44232</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
         <v>3245158810</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>44233</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
         <v>3242802028</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>44234</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
         <v>3242802028</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>44235</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
         <v>3242801122</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>44236</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
         <v>3242801122</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29.25" thickBot="1">
+    <row r="97" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>44237</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
         <v>3242801118</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>44238</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
         <v>3242802028</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>44239</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1">

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B987FA4-9663-4845-80C0-84AD0691C301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDDC741-C6D6-47F8-9EDC-93852BD3F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="123">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Kadastro Müdür Yrd.</t>
+  </si>
+  <si>
+    <t>Kontrol Memuru(Tasarruf)</t>
   </si>
 </sst>
 </file>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A4:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,8 +1506,8 @@
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>108</v>
+      <c r="B35" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C35" s="3">
         <v>44175</v>

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDDC741-C6D6-47F8-9EDC-93852BD3F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A58C1-26D8-49EB-9649-191B43A15055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="125">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -393,7 +393,13 @@
     <t>Kadastro Müdür Yrd.</t>
   </si>
   <si>
-    <t>Kontrol Memuru(Tasarruf)</t>
+    <t>Kontrol Memuru(Fen)</t>
+  </si>
+  <si>
+    <t>Kontrol Memuru(Tas.)</t>
+  </si>
+  <si>
+    <t>Tekniker(Kont. Mem.)</t>
   </si>
 </sst>
 </file>
@@ -858,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,8 +1356,8 @@
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>108</v>
+      <c r="B27" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C27" s="3">
         <v>44167</v>
@@ -1386,71 +1392,73 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>108</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C29" s="3">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F29" s="1">
-        <v>3242801130</v>
+        <v>3242801120</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="3">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1">
-        <v>3242801120</v>
+        <v>3242801365</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C31" s="3">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1">
-        <v>3242801365</v>
+        <v>3242801538</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C32" s="3">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>117</v>
@@ -1459,18 +1467,18 @@
         <v>100</v>
       </c>
       <c r="F32" s="1">
-        <v>3242801538</v>
+        <v>3242801537</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C33" s="3">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>117</v>
@@ -1479,152 +1487,152 @@
         <v>100</v>
       </c>
       <c r="F33" s="1">
-        <v>3242801537</v>
+        <v>3242801535</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C34" s="3">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1">
-        <v>3242801535</v>
+        <v>3242801197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="3">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
-        <v>3242801197</v>
+        <v>3242801546</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="3">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F36" s="1">
-        <v>3242801546</v>
+        <v>3242801167</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="3">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>3242801167</v>
+        <v>3242801542</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C38" s="3">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <v>3242801542</v>
+        <v>3242801081</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C39" s="3">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F39" s="1">
-        <v>3242801081</v>
+        <v>3242801543</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="3">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1">
-        <v>3242801543</v>
+        <v>3242801086</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="3">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>117</v>
@@ -1633,199 +1641,197 @@
         <v>101</v>
       </c>
       <c r="F41" s="1">
-        <v>3242801086</v>
+        <v>3242801078</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C42" s="3">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1">
-        <v>3242801078</v>
+        <v>3242801370</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C43" s="3">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <v>3242801370</v>
+        <v>3242801131</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="3">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F44" s="1">
-        <v>3242801131</v>
+        <v>3242801541</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="3">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" s="1">
-        <v>3242801541</v>
+        <v>3242802026</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="3">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1">
-        <v>3242802026</v>
+        <v>3242801373</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C47" s="3">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <v>3242801373</v>
+        <v>3242802027</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="3">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <v>3242802027</v>
+        <v>3242801192</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C49" s="3">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
-        <v>3242801192</v>
+        <v>3242801134</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="3">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F50" s="1">
-        <v>3242801134</v>
+        <v>3242801168</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>21</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C51" s="3">
-        <v>44191</v>
+        <v>44169</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1">
-        <v>3242801168</v>
+        <v>3242801130</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A58C1-26D8-49EB-9649-191B43A15055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C471C-82BB-4A04-B570-22D06AAECB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -342,9 +353,6 @@
     <t>Mühendis</t>
   </si>
   <si>
-    <t>Şoför</t>
-  </si>
-  <si>
     <t>K.Mühendisi</t>
   </si>
   <si>
@@ -400,6 +408,9 @@
   </si>
   <si>
     <t>Tekniker(Kont. Mem.)</t>
+  </si>
+  <si>
+    <t>Memur</t>
   </si>
 </sst>
 </file>
@@ -864,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,22 +891,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -909,7 +920,7 @@
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -921,13 +932,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3">
         <v>44143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -939,13 +950,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3">
         <v>44144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -957,13 +968,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3">
         <v>44145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -975,13 +986,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3">
         <v>44146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -993,13 +1004,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3">
         <v>44147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -1011,13 +1022,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3">
         <v>44148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -1029,13 +1040,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7">
         <v>44149</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -1047,13 +1058,13 @@
         <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3">
         <v>44150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1065,13 +1076,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3">
         <v>44151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1083,13 +1094,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3">
         <v>44152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -1101,13 +1112,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3">
         <v>44153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>100</v>
@@ -1121,13 +1132,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3">
         <v>44154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>102</v>
@@ -1141,13 +1152,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3">
         <v>44155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -1159,13 +1170,13 @@
         <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3">
         <v>44156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -1177,13 +1188,13 @@
         <v>91</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3">
         <v>44157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1201,7 +1212,7 @@
         <v>44158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1219,7 +1230,7 @@
         <v>44159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1237,7 +1248,7 @@
         <v>44160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -1255,7 +1266,7 @@
         <v>44161</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -1273,7 +1284,7 @@
         <v>44162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -1285,13 +1296,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3">
         <v>44163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -1303,13 +1314,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3">
         <v>44164</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1321,13 +1332,13 @@
         <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3">
         <v>44165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1339,13 +1350,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3">
         <v>44166</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1357,13 +1368,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3">
         <v>44167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>101</v>
@@ -1377,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3">
         <v>44168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -1395,13 +1406,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="3">
         <v>44170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>101</v>
@@ -1415,13 +1426,13 @@
         <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="3">
         <v>44171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>102</v>
@@ -1435,13 +1446,13 @@
         <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3">
         <v>44172</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>100</v>
@@ -1455,13 +1466,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="3">
         <v>44173</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>100</v>
@@ -1475,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="3">
         <v>44174</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>100</v>
@@ -1495,13 +1506,13 @@
         <v>93</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="3">
         <v>44175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
@@ -1513,13 +1524,13 @@
         <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="3">
         <v>44176</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
@@ -1531,13 +1542,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="3">
         <v>44177</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>99</v>
@@ -1551,13 +1562,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="3">
         <v>44178</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>100</v>
@@ -1571,13 +1582,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3">
         <v>44179</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
@@ -1589,13 +1600,13 @@
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3">
         <v>44180</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>100</v>
@@ -1609,13 +1620,13 @@
         <v>15</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="3">
         <v>44181</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>101</v>
@@ -1629,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3">
         <v>44182</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>101</v>
@@ -1649,13 +1660,13 @@
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="3">
         <v>44183</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>102</v>
@@ -1669,13 +1680,13 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3">
         <v>44184</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
@@ -1687,13 +1698,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3">
         <v>44185</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>100</v>
@@ -1707,13 +1718,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="3">
         <v>44186</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>101</v>
@@ -1727,13 +1738,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3">
         <v>44187</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>102</v>
@@ -1747,13 +1758,13 @@
         <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="3">
         <v>44188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
@@ -1765,13 +1776,13 @@
         <v>67</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="3">
         <v>44189</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
@@ -1783,13 +1794,13 @@
         <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="3">
         <v>44190</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
@@ -1801,13 +1812,13 @@
         <v>95</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="3">
         <v>44191</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>99</v>
@@ -1821,13 +1832,13 @@
         <v>21</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3">
         <v>44169</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
@@ -1839,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3">
         <v>44192</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
@@ -1857,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3">
         <v>44193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1">
@@ -1875,13 +1886,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3">
         <v>44194</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1">
@@ -1893,13 +1904,13 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="3">
         <v>44195</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
@@ -1911,13 +1922,13 @@
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3">
         <v>44196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>101</v>
@@ -1931,13 +1942,13 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="3">
         <v>44197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
@@ -1949,13 +1960,13 @@
         <v>34</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="3">
         <v>44198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>102</v>
@@ -1969,13 +1980,13 @@
         <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" s="3">
         <v>44199</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
@@ -1987,13 +1998,13 @@
         <v>48</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="3">
         <v>44200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
@@ -2005,13 +2016,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="3">
         <v>44201</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>100</v>
@@ -2025,13 +2036,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="3">
         <v>44202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
@@ -2043,13 +2054,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="3">
         <v>44203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -2061,13 +2072,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="3">
         <v>44204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
@@ -2079,13 +2090,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="3">
         <v>44205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>100</v>
@@ -2099,13 +2110,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="3">
         <v>44206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
@@ -2117,13 +2128,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="3">
         <v>44207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>99</v>
@@ -2137,13 +2148,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="3">
         <v>44208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
@@ -2155,13 +2166,13 @@
         <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" s="3">
         <v>44209</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1">
@@ -2173,13 +2184,13 @@
         <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" s="3">
         <v>44210</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>102</v>
@@ -2193,13 +2204,13 @@
         <v>79</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="3">
         <v>44211</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>101</v>
@@ -2213,13 +2224,13 @@
         <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" s="3">
         <v>44212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>100</v>
@@ -2233,13 +2244,13 @@
         <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="3">
         <v>44213</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
@@ -2251,13 +2262,13 @@
         <v>84</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="3">
         <v>44214</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
@@ -2269,13 +2280,13 @@
         <v>85</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="3">
         <v>44215</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>101</v>
@@ -2289,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="3">
         <v>44216</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>100</v>
@@ -2309,13 +2320,13 @@
         <v>88</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="3">
         <v>44217</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
@@ -2329,13 +2340,13 @@
         <v>90</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="3">
         <v>44218</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -2347,13 +2358,13 @@
         <v>96</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="3">
         <v>44219</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
@@ -2364,14 +2375,14 @@
       <c r="A80" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>105</v>
+      <c r="B80" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C80" s="3">
         <v>44220</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
@@ -2383,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="3">
         <v>44221</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1">
@@ -2401,13 +2412,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" s="3">
         <v>44222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1">
@@ -2419,13 +2430,13 @@
         <v>12</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="3">
         <v>44223</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1">
@@ -2437,13 +2448,13 @@
         <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="3">
         <v>44224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1">
@@ -2455,13 +2466,13 @@
         <v>24</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="3">
         <v>44225</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1">
@@ -2473,13 +2484,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3">
         <v>44226</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1">
@@ -2491,13 +2502,13 @@
         <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3">
         <v>44227</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1">
@@ -2509,13 +2520,13 @@
         <v>49</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" s="3">
         <v>44228</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1">
@@ -2527,13 +2538,13 @@
         <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="3">
         <v>44229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1">
@@ -2545,13 +2556,13 @@
         <v>77</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="3">
         <v>44230</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1">
@@ -2563,13 +2574,13 @@
         <v>92</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="3">
         <v>44231</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1">
@@ -2581,13 +2592,13 @@
         <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="3">
         <v>44232</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
@@ -2605,7 +2616,7 @@
         <v>44233</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
@@ -2623,7 +2634,7 @@
         <v>44234</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
@@ -2641,7 +2652,7 @@
         <v>44235</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
@@ -2659,7 +2670,7 @@
         <v>44236</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
@@ -2677,7 +2688,7 @@
         <v>44237</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
@@ -2695,7 +2706,7 @@
         <v>44238</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
@@ -2713,7 +2724,7 @@
         <v>44239</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1">

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C471C-82BB-4A04-B570-22D06AAECB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DECA4A-399B-45BC-8985-0E06928AD2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="127">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -233,9 +222,6 @@
     <t>MÜMİN AKDOĞAN</t>
   </si>
   <si>
-    <t>NAİLE DİKEÇ</t>
-  </si>
-  <si>
     <t>NAZLI ÇELİK</t>
   </si>
   <si>
@@ -335,18 +321,6 @@
     <t>GÖKHAN ELGÜL</t>
   </si>
   <si>
-    <t>MUT</t>
-  </si>
-  <si>
-    <t>SİLİFKE</t>
-  </si>
-  <si>
-    <t>ERDEMLİ</t>
-  </si>
-  <si>
-    <t>ANAMUR</t>
-  </si>
-  <si>
     <t>Kadastro Müdürü</t>
   </si>
   <si>
@@ -374,9 +348,6 @@
     <t>Sürekli İşçi</t>
   </si>
   <si>
-    <t>İşçi</t>
-  </si>
-  <si>
     <t>Adı Soyadı</t>
   </si>
   <si>
@@ -411,6 +382,30 @@
   </si>
   <si>
     <t>Memur</t>
+  </si>
+  <si>
+    <t>VOLKAN İZCİ</t>
+  </si>
+  <si>
+    <t>Mersin</t>
+  </si>
+  <si>
+    <t>Erdemli</t>
+  </si>
+  <si>
+    <t>Tarsus</t>
+  </si>
+  <si>
+    <t>Anamur</t>
+  </si>
+  <si>
+    <t>Silifke</t>
+  </si>
+  <si>
+    <t>Mut</t>
+  </si>
+  <si>
+    <t>Daimi İşçi</t>
   </si>
 </sst>
 </file>
@@ -875,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,40 +886,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C2" s="3">
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
-        <v>4242801003</v>
+        <v>3242801113</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -932,13 +927,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3">
-        <v>44143</v>
+        <v>30627</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -950,15 +945,17 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
-        <v>44144</v>
+        <v>41146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F4" s="1">
         <v>3242801082</v>
       </c>
@@ -968,15 +965,17 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3">
-        <v>44145</v>
+        <v>32659</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F5" s="1">
         <v>3242801200</v>
       </c>
@@ -986,13 +985,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3">
-        <v>44146</v>
+        <v>35027</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -1004,17 +1003,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
-        <v>44147</v>
+        <v>42642</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F7" s="1">
-        <v>3862801033</v>
+        <v>3242801360</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1022,17 +1023,19 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3">
-        <v>44148</v>
+        <v>38638</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F8" s="1">
-        <v>3242801533</v>
+        <v>3242801362</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1040,31 +1043,29 @@
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7">
-        <v>44149</v>
+        <v>44582</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>2162801893</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3">
-        <v>44150</v>
+        <v>37472</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1076,52 +1077,48 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3">
-        <v>44151</v>
+        <v>29517</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>2322802252</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3">
-        <v>44152</v>
+        <v>46005</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>3242801117</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3">
-        <v>44153</v>
+        <v>31404</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1">
         <v>3242801532</v>
@@ -1129,184 +1126,188 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3">
-        <v>44154</v>
+        <v>45713</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F14" s="1">
-        <v>3242801360</v>
+        <v>3242802024</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3">
-        <v>44155</v>
+        <v>30948</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>3242802024</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3">
-        <v>44156</v>
+        <v>45725</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F16" s="1">
-        <v>3222801189</v>
+        <v>3242801193</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3">
-        <v>44157</v>
+        <v>39307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <v>3242801193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242802018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3">
-        <v>44158</v>
+        <v>33925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F18" s="1">
-        <v>3242801122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3">
-        <v>44159</v>
+        <v>44383</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F19" s="1">
-        <v>3242801185</v>
+        <v>3242801071</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
-        <v>44160</v>
+        <v>41006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F20" s="1">
-        <v>3242801071</v>
+        <v>3242801201</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3">
-        <v>44161</v>
+        <v>41007</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>3242801201</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3">
-        <v>44162</v>
+        <v>43446</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>3242801114</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3">
-        <v>44163</v>
+        <v>454746</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F23" s="1">
-        <v>3242801123</v>
+        <v>3242801163</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1314,17 +1315,17 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3">
-        <v>44164</v>
+        <v>454516</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <v>3242801114</v>
+        <v>3242801125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1332,17 +1333,19 @@
         <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3">
-        <v>44165</v>
+        <v>454709</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F25" s="1">
-        <v>3242801188</v>
+        <v>3242801195</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1350,13 +1353,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3">
-        <v>44166</v>
+        <v>454710</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1368,16 +1371,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3">
-        <v>44167</v>
+        <v>31039</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1">
         <v>3242801084</v>
@@ -1388,17 +1391,19 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3">
-        <v>44168</v>
+        <v>31164</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F28" s="1">
-        <v>3222801235</v>
+        <v>3242801073</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1406,17 +1411,15 @@
         <v>39</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3">
-        <v>44170</v>
+        <v>27048</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>3242801120</v>
       </c>
@@ -1426,16 +1429,16 @@
         <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3">
-        <v>44171</v>
+        <v>23502</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1">
         <v>3242801365</v>
@@ -1446,16 +1449,16 @@
         <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3">
-        <v>44172</v>
+        <v>32414</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1">
         <v>3242801538</v>
@@ -1466,16 +1469,16 @@
         <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C32" s="3">
-        <v>44173</v>
+        <v>31048</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1">
         <v>3242801537</v>
@@ -1486,16 +1489,16 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C33" s="3">
-        <v>44174</v>
+        <v>29172</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F33" s="1">
         <v>3242801535</v>
@@ -1503,36 +1506,40 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="3">
+        <v>26807</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="3">
-        <v>44175</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="1"/>
       <c r="F34" s="1">
         <v>3242801197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3">
-        <v>44176</v>
+        <v>32400</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F35" s="1">
         <v>3242801546</v>
       </c>
@@ -1542,16 +1549,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C36" s="3">
-        <v>44177</v>
+        <v>28763</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F36" s="1">
         <v>3242801167</v>
@@ -1562,16 +1569,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
-        <v>44178</v>
+        <v>26352</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F37" s="1">
         <v>3242801542</v>
@@ -1582,15 +1589,17 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3">
-        <v>44179</v>
+        <v>31193</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F38" s="1">
         <v>3242801081</v>
       </c>
@@ -1600,16 +1609,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3">
-        <v>44180</v>
+        <v>41762</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F39" s="1">
         <v>3242801543</v>
@@ -1620,16 +1629,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3">
-        <v>44181</v>
+        <v>28287</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1">
         <v>3242801086</v>
@@ -1640,16 +1649,16 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3">
-        <v>44182</v>
+        <v>30844</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1">
         <v>3242801078</v>
@@ -1660,19 +1669,19 @@
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3">
-        <v>44183</v>
+        <v>25436</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F42" s="1">
-        <v>3242801370</v>
+        <v>3242801369</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1680,13 +1689,13 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C43" s="3">
-        <v>44184</v>
+        <v>41033</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
@@ -1698,16 +1707,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C44" s="3">
-        <v>44185</v>
+        <v>29481</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1">
         <v>3242801541</v>
@@ -1718,17 +1727,15 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C45" s="3">
-        <v>44186</v>
+        <v>28330</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1">
         <v>3242802026</v>
       </c>
@@ -1738,16 +1745,16 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
-        <v>44187</v>
+        <v>27625</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1">
         <v>3242801373</v>
@@ -1758,13 +1765,13 @@
         <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3">
-        <v>44188</v>
+        <v>41717</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
@@ -1773,34 +1780,36 @@
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3">
-        <v>44189</v>
+        <v>26939</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F48" s="1">
         <v>3242801192</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3">
-        <v>44190</v>
+        <v>41520</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
@@ -1809,19 +1818,19 @@
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3">
-        <v>44191</v>
+        <v>26938</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F50" s="1">
         <v>3242801168</v>
@@ -1832,17 +1841,17 @@
         <v>21</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3">
-        <v>44169</v>
+        <v>31344</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
-        <v>3242801130</v>
+        <v>3242802023</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1850,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C52" s="3">
-        <v>44192</v>
+        <v>41755</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
@@ -1868,33 +1877,33 @@
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3">
-        <v>44193</v>
+        <v>46300</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1">
-        <v>2282801056</v>
-      </c>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3">
-        <v>44194</v>
+        <v>46390</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F54" s="1">
         <v>3242801190</v>
       </c>
@@ -1904,13 +1913,13 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C55" s="3">
-        <v>44195</v>
+        <v>35445</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
@@ -1922,19 +1931,19 @@
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C56" s="3">
-        <v>44196</v>
+        <v>46220</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F56" s="1">
-        <v>3242801289</v>
+        <v>3242801087</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1942,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C57" s="3">
-        <v>44197</v>
+        <v>44950</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
@@ -1960,16 +1969,16 @@
         <v>34</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3">
-        <v>44198</v>
+        <v>40368</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F58" s="1">
         <v>3242801371</v>
@@ -1980,15 +1989,17 @@
         <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C59" s="3">
-        <v>44199</v>
+        <v>32444</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F59" s="1">
         <v>3242801189</v>
       </c>
@@ -1998,13 +2009,13 @@
         <v>48</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C60" s="3">
-        <v>44200</v>
+        <v>41037</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
@@ -2016,16 +2027,16 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C61" s="3">
-        <v>44201</v>
+        <v>41339</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F61" s="1">
         <v>3242801549</v>
@@ -2036,13 +2047,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3">
-        <v>44202</v>
+        <v>31043</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
@@ -2054,13 +2065,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C63" s="3">
-        <v>44203</v>
+        <v>42777</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -2069,37 +2080,39 @@
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C64" s="3">
-        <v>44204</v>
+        <v>45449</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F64" s="1">
         <v>3242801191</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C65" s="3">
-        <v>44205</v>
+        <v>33999</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1">
         <v>3242801540</v>
@@ -2107,37 +2120,37 @@
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C66" s="3">
-        <v>44206</v>
+        <v>41090</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <v>3242801116</v>
+        <v>3242802022</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C67" s="3">
-        <v>44207</v>
+        <v>31085</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F67" s="1">
         <v>3242801169</v>
@@ -2145,16 +2158,16 @@
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C68" s="3">
-        <v>44208</v>
+        <v>32281</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
@@ -2163,37 +2176,39 @@
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C69" s="3">
-        <v>44209</v>
+        <v>39331</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F69" s="1">
         <v>3242801188</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C70" s="3">
-        <v>44210</v>
+        <v>27723</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F70" s="1">
         <v>3242801375</v>
@@ -2201,19 +2216,19 @@
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C71" s="3">
-        <v>44211</v>
+        <v>32337</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F71" s="1">
         <v>3242801077</v>
@@ -2221,54 +2236,56 @@
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C72" s="3">
-        <v>44212</v>
+        <v>31312</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F72" s="1">
-        <v>3242801540</v>
+        <v>3242801544</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C73" s="3">
-        <v>44213</v>
+        <v>35434</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F73" s="1">
         <v>3242801186</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C74" s="3">
-        <v>44214</v>
+        <v>41821</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
@@ -2277,19 +2294,19 @@
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C75" s="3">
-        <v>44215</v>
+        <v>41348</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F75" s="1">
         <v>3242801074</v>
@@ -2297,19 +2314,19 @@
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C76" s="3">
-        <v>44216</v>
+        <v>31223</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F76" s="1">
         <v>3242801547</v>
@@ -2317,19 +2334,19 @@
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C77" s="3">
-        <v>44217</v>
+        <v>40845</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F77" s="1">
         <v>3242801376</v>
@@ -2337,16 +2354,16 @@
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3">
-        <v>44218</v>
+        <v>33457</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -2355,34 +2372,36 @@
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C79" s="3">
-        <v>44219</v>
+        <v>35780</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F79" s="1">
-        <v>3242801202</v>
+        <v>3242801200</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C80" s="3">
-        <v>44220</v>
+        <v>48643</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
@@ -2394,15 +2413,17 @@
         <v>1</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C81" s="3">
-        <v>44221</v>
+        <v>807767</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F81" s="1">
         <v>3242801548</v>
       </c>
@@ -2412,15 +2433,17 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C82" s="3">
-        <v>44222</v>
+        <v>600872</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F82" s="1">
         <v>3242801076</v>
       </c>
@@ -2430,15 +2453,17 @@
         <v>12</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C83" s="3">
-        <v>44223</v>
+        <v>807778</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F83" s="1">
         <v>3242801536</v>
       </c>
@@ -2448,13 +2473,13 @@
         <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C84" s="3">
-        <v>44224</v>
+        <v>601163</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1">
@@ -2466,33 +2491,35 @@
         <v>24</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C85" s="3">
-        <v>44225</v>
+        <v>600880</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1">
-        <v>3242801188</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C86" s="3">
-        <v>44226</v>
+        <v>807765</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F86" s="1">
         <v>3242801085</v>
       </c>
@@ -2502,15 +2529,17 @@
         <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C87" s="3">
-        <v>44227</v>
+        <v>807780</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="F87" s="1">
         <v>3242801176</v>
       </c>
@@ -2520,13 +2549,13 @@
         <v>49</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C88" s="3">
-        <v>44228</v>
+        <v>807702</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1">
@@ -2535,34 +2564,36 @@
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C89" s="3">
-        <v>44229</v>
+        <v>807770</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E89" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F89" s="1">
         <v>3242801539</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C90" s="3">
-        <v>44230</v>
+        <v>600904</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1">
@@ -2571,38 +2602,38 @@
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="3">
-        <v>44231</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1">
-        <v>3242801100</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>112</v>
+      <c r="B92" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C92" s="3">
-        <v>44232</v>
+        <v>905120</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F92" s="1">
-        <v>3245158810</v>
+        <v>3242801076</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2613,10 +2644,10 @@
         <v>7</v>
       </c>
       <c r="C93" s="3">
-        <v>44233</v>
+        <v>600840</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
@@ -2631,10 +2662,10 @@
         <v>7</v>
       </c>
       <c r="C94" s="3">
-        <v>44234</v>
+        <v>600841</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
@@ -2649,14 +2680,14 @@
         <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>44235</v>
+        <v>600850</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
-        <v>3242801122</v>
+        <v>3242802028</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2667,14 +2698,14 @@
         <v>7</v>
       </c>
       <c r="C96" s="3">
-        <v>44236</v>
+        <v>600857</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
-        <v>3242801122</v>
+        <v>3242802028</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2685,14 +2716,14 @@
         <v>7</v>
       </c>
       <c r="C97" s="3">
-        <v>44237</v>
+        <v>600859</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
-        <v>3242801118</v>
+        <v>3242802028</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2703,10 +2734,10 @@
         <v>7</v>
       </c>
       <c r="C98" s="3">
-        <v>44238</v>
+        <v>600862</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
@@ -2715,16 +2746,16 @@
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="3">
-        <v>44239</v>
+        <v>600868</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1">

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DECA4A-399B-45BC-8985-0E06928AD2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B66C59-F9CF-4E6A-9BE3-8C07A562E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$99</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2607,7 +2610,9 @@
       <c r="B91" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3">
+        <v>600909</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>110</v>
       </c>
@@ -2763,6 +2768,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B66C59-F9CF-4E6A-9BE3-8C07A562E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AA002D-4D77-42B3-B9CB-3E92836B6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -37,9 +40,6 @@
   </si>
   <si>
     <t>AHMET TÜRKOĞLU</t>
-  </si>
-  <si>
-    <t>AHMET YILDIRIM</t>
   </si>
   <si>
     <t>ALİ BAŞKURT</t>
@@ -871,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,36 +889,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C2" s="3">
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -927,16 +927,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3">
         <v>30627</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -945,19 +945,19 @@
     </row>
     <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3">
         <v>41146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1">
         <v>3242801082</v>
@@ -965,19 +965,19 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3">
         <v>32659</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1">
         <v>3242801200</v>
@@ -985,16 +985,16 @@
     </row>
     <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3">
         <v>35027</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -1003,19 +1003,19 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3">
         <v>42642</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1">
         <v>3242801360</v>
@@ -1023,19 +1023,19 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3">
         <v>38638</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1">
         <v>3242801362</v>
@@ -1043,32 +1043,32 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="7">
         <v>44582</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3">
         <v>37472</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1077,51 +1077,51 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3">
         <v>29517</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3">
         <v>46005</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3">
         <v>31404</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1">
         <v>3242801532</v>
@@ -1129,19 +1129,19 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3">
         <v>45713</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1">
         <v>3242802024</v>
@@ -1149,35 +1149,35 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3">
         <v>30948</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3">
         <v>45725</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1">
         <v>3242801193</v>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3">
         <v>39307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1203,19 +1203,19 @@
     </row>
     <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="3">
         <v>33925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1">
         <v>3242801185</v>
@@ -1223,19 +1223,19 @@
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3">
         <v>44383</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="1">
         <v>3242801071</v>
@@ -1243,19 +1243,19 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="3">
         <v>41006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1">
         <v>3242801201</v>
@@ -1263,51 +1263,51 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3">
         <v>41007</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3">
         <v>43446</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3">
         <v>454746</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1">
         <v>3242801163</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3">
         <v>454516</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1333,19 +1333,19 @@
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3">
         <v>454709</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1">
         <v>3242801195</v>
@@ -1353,16 +1353,16 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3">
         <v>454710</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1371,19 +1371,19 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3">
         <v>31039</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="1">
         <v>3242801084</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3">
         <v>31164</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1">
         <v>3242801073</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3">
         <v>27048</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
@@ -1429,19 +1429,19 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3">
         <v>23502</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="1">
         <v>3242801365</v>
@@ -1449,19 +1449,19 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3">
         <v>32414</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="1">
         <v>3242801538</v>
@@ -1469,19 +1469,19 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3">
         <v>31048</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1">
         <v>3242801537</v>
@@ -1489,19 +1489,19 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3">
         <v>29172</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="1">
         <v>3242801535</v>
@@ -1509,19 +1509,19 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3">
         <v>26807</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="1">
         <v>3242801197</v>
@@ -1529,19 +1529,19 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3">
         <v>32400</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="1">
         <v>3242801546</v>
@@ -1552,16 +1552,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3">
         <v>28763</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1">
         <v>3242801167</v>
@@ -1569,42 +1569,42 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3">
-        <v>26352</v>
+        <v>31193</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
-        <v>3242801542</v>
+        <v>3242801081</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3">
-        <v>31193</v>
+        <v>41762</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F38" s="1">
-        <v>3242801081</v>
+        <v>3242801543</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1612,303 +1612,301 @@
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3">
-        <v>41762</v>
+        <v>28287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F39" s="1">
-        <v>3242801543</v>
+        <v>3242801086</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3">
-        <v>28287</v>
+        <v>30844</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1">
-        <v>3242801086</v>
+        <v>3242801078</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3">
-        <v>30844</v>
+        <v>25436</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="1">
-        <v>3242801078</v>
+        <v>3242801369</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3">
-        <v>25436</v>
+        <v>41033</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <v>3242801369</v>
+        <v>3242801131</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3">
-        <v>41033</v>
+        <v>29481</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F43" s="1">
-        <v>3242801131</v>
+        <v>3242801541</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3">
-        <v>29481</v>
+        <v>28330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>3242801541</v>
+        <v>3242802026</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3">
-        <v>28330</v>
+        <v>27625</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F45" s="1">
-        <v>3242802026</v>
+        <v>3242801373</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3">
-        <v>27625</v>
+        <v>41717</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1">
-        <v>3242801373</v>
+        <v>3242802027</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3">
-        <v>41717</v>
+        <v>26939</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F47" s="1">
-        <v>3242802027</v>
+        <v>3242801192</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3">
-        <v>26939</v>
+        <v>41520</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <v>3242801192</v>
+        <v>3242801134</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="3">
-        <v>41520</v>
+        <v>26938</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F49" s="1">
-        <v>3242801134</v>
+        <v>3242801168</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C50" s="3">
-        <v>26938</v>
+        <v>31344</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1">
-        <v>3242801168</v>
+        <v>3242802023</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C51" s="3">
-        <v>31344</v>
+        <v>41755</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
-        <v>3242802023</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="3">
-        <v>41755</v>
+        <v>46300</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1">
-        <v>3242801135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="3">
-        <v>46300</v>
+        <v>46390</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3242801190</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3">
-        <v>46390</v>
+        <v>35445</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1">
-        <v>3242801190</v>
+        <v>3242801129</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1916,113 +1914,115 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="3">
-        <v>35445</v>
+        <v>46220</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F55" s="1">
-        <v>3242801129</v>
+        <v>3242801087</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="3">
-        <v>46220</v>
+        <v>44950</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1">
-        <v>3242801087</v>
+        <v>3242801133</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="3">
-        <v>44950</v>
+        <v>40368</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F57" s="1">
-        <v>3242801133</v>
+        <v>3242801371</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
-        <v>40368</v>
+        <v>32444</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F58" s="1">
-        <v>3242801371</v>
+        <v>3242801189</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="3">
-        <v>32444</v>
+        <v>41037</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1">
-        <v>3242801189</v>
+        <v>3242801187</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="3">
-        <v>41037</v>
+        <v>41339</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F60" s="1">
-        <v>3242801187</v>
+        <v>3242801549</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2030,95 +2030,93 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="3">
-        <v>41339</v>
+        <v>31043</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1">
-        <v>3242801549</v>
+        <v>3242801123</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3">
-        <v>31043</v>
+        <v>42777</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
-        <v>3242801123</v>
+        <v>3242801136</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="3">
-        <v>42777</v>
+        <v>45449</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F63" s="1">
-        <v>3242801136</v>
+        <v>3242801191</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="3">
-        <v>45449</v>
+        <v>33999</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F64" s="1">
-        <v>3242801191</v>
+        <v>3242801540</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" s="3">
-        <v>33999</v>
+        <v>41090</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1">
-        <v>3242801540</v>
+        <v>3242802022</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2126,37 +2124,37 @@
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="3">
-        <v>41090</v>
+        <v>31085</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F66" s="1">
-        <v>3242802022</v>
+        <v>3242801169</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="3">
-        <v>31085</v>
+        <v>32281</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1">
-        <v>3242801169</v>
+        <v>3242801132</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2164,17 +2162,19 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" s="3">
-        <v>32281</v>
+        <v>39331</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F68" s="1">
-        <v>3242801132</v>
+        <v>3242801188</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2182,39 +2182,39 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="3">
-        <v>39331</v>
+        <v>27723</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F69" s="1">
-        <v>3242801188</v>
+        <v>3242801375</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3">
-        <v>27723</v>
+        <v>32337</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F70" s="1">
-        <v>3242801375</v>
+        <v>3242801077</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2222,19 +2222,19 @@
         <v>78</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="3">
-        <v>32337</v>
+        <v>31312</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F71" s="1">
-        <v>3242801077</v>
+        <v>3242801544</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2242,39 +2242,37 @@
         <v>79</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" s="3">
-        <v>31312</v>
+        <v>35434</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F72" s="1">
-        <v>3242801544</v>
+        <v>3242801186</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="3">
-        <v>35434</v>
+        <v>41821</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1">
-        <v>3242801186</v>
+        <v>3242801126</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2282,17 +2280,19 @@
         <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="3">
-        <v>41821</v>
+        <v>41348</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F74" s="1">
-        <v>3242801126</v>
+        <v>3242801074</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2300,175 +2300,173 @@
         <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="3">
-        <v>41348</v>
+        <v>31223</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F75" s="1">
-        <v>3242801074</v>
+        <v>3242801547</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="3">
-        <v>31223</v>
+        <v>40845</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F76" s="1">
-        <v>3242801547</v>
+        <v>3242801376</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="3">
-        <v>40845</v>
+        <v>33457</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1">
-        <v>3242801376</v>
+        <v>3242802017</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C78" s="3">
-        <v>33457</v>
+        <v>35780</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F78" s="1">
-        <v>3242802017</v>
+        <v>3242801200</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C79" s="3">
-        <v>35780</v>
+        <v>48643</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1">
-        <v>3242801200</v>
+        <v>3242802019</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C80" s="3">
-        <v>48643</v>
+        <v>807767</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F80" s="1">
-        <v>3242802019</v>
+        <v>3242801548</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C81" s="3">
-        <v>807767</v>
+        <v>600872</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F81" s="1">
-        <v>3242801548</v>
+        <v>3242801076</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C82" s="3">
-        <v>600872</v>
+        <v>807778</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F82" s="1">
-        <v>3242801076</v>
+        <v>3242801536</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C83" s="3">
-        <v>807778</v>
+        <v>601163</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1">
-        <v>3242801536</v>
+        <v>3242802026</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2476,183 +2474,183 @@
         <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="3">
-        <v>601163</v>
+        <v>600880</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1">
-        <v>3242802026</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C85" s="3">
-        <v>600880</v>
+        <v>807765</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3242801085</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="3">
-        <v>807765</v>
+        <v>807780</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F86" s="1">
-        <v>3242801085</v>
+        <v>3242801176</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" s="3">
-        <v>807780</v>
+        <v>807702</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" s="1">
-        <v>3242801176</v>
+        <v>3242802029</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="3">
-        <v>807702</v>
+        <v>807770</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E88" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F88" s="1">
-        <v>3242802029</v>
+        <v>3242801539</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C89" s="3">
-        <v>807770</v>
+        <v>600904</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" s="1">
-        <v>3242801539</v>
+        <v>3242801122</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="3">
-        <v>600904</v>
+        <v>600909</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1">
-        <v>3242801122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C91" s="3">
-        <v>600909</v>
+        <v>905120</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F91" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3242801076</v>
+      </c>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C92" s="3">
-        <v>905120</v>
+        <v>600840</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1">
-        <v>3242801076</v>
+        <v>3242802028</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C93" s="3">
-        <v>600840</v>
+        <v>600841</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
@@ -2661,16 +2659,16 @@
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>600841</v>
+        <v>600850</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
@@ -2679,52 +2677,52 @@
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="3">
-        <v>600850</v>
+        <v>600857</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
         <v>3242802028</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" s="3">
-        <v>600857</v>
+        <v>600859</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
         <v>3242802028</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>600859</v>
+        <v>600862</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
@@ -2733,42 +2731,24 @@
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" s="3">
-        <v>600862</v>
+        <v>600868</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
         <v>3242802028</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="3">
-        <v>600868</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1">
-        <v>3242802028</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="E1:E99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AA002D-4D77-42B3-B9CB-3E92836B6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988ACA3F-243E-4CC4-98C1-58354A5F8D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Daimi İşçi</t>
+  </si>
+  <si>
+    <t>Mühendis(Çevre)</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1249,7 @@
         <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3">
         <v>41006</v>

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988ACA3F-243E-4CC4-98C1-58354A5F8D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D4210-55DA-4582-A856-C3F781FDCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="129">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -108,9 +108,6 @@
     <t>GÜLİZAR YILDIZ</t>
   </si>
   <si>
-    <t>HAKAN ÖZEL</t>
-  </si>
-  <si>
     <t>HALİL BİLGEN</t>
   </si>
   <si>
@@ -412,6 +409,15 @@
   </si>
   <si>
     <t>Mühendis(Çevre)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Cinsiyet</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,6 +545,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,1884 +886,2156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C2" s="3">
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>3242801113</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3">
         <v>30627</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>3242801121</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3">
         <v>41146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1">
         <v>3242801082</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3">
         <v>32659</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
         <v>3242801200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3">
         <v>35027</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>3242801115</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3">
         <v>42642</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1">
         <v>3242801360</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="3">
         <v>38638</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1">
         <v>3242801362</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7">
         <v>44582</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3">
         <v>37472</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>3242801114</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3">
         <v>29517</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3">
         <v>46005</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3">
         <v>31404</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1">
         <v>3242801532</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3">
         <v>45713</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1">
         <v>3242802024</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3">
         <v>30948</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3">
         <v>45725</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="1">
         <v>3242801193</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3">
         <v>39307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>3242802018</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3">
         <v>33925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1">
         <v>3242801185</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3">
         <v>44383</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="1">
         <v>3242801071</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3">
         <v>41006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="1">
         <v>3242801201</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3">
         <v>41007</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3">
         <v>43446</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3">
         <v>454746</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1">
         <v>3242801163</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3">
         <v>454516</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>3242801125</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3">
         <v>454709</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1">
         <v>3242801195</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3">
         <v>454710</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>3242802018</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3">
         <v>31039</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="1">
         <v>3242801084</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3">
         <v>31164</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1">
         <v>3242801073</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3">
         <v>27048</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>3242801120</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3">
         <v>23502</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1">
         <v>3242801365</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3">
         <v>32414</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="1">
         <v>3242801538</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3">
         <v>31048</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" s="1">
         <v>3242801537</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3">
         <v>29172</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="1">
         <v>3242801535</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3">
         <v>26807</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1">
         <v>3242801197</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3">
         <v>32400</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="1">
         <v>3242801546</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3">
         <v>28763</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1">
         <v>3242801167</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="3">
         <v>31193</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="1">
         <v>3242801081</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="3">
         <v>41762</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1">
         <v>3242801543</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3">
         <v>28287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1">
         <v>3242801086</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3">
+        <v>25436</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3242801369</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="3">
+        <v>41033</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
+        <v>3242801131</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="3">
+        <v>29481</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3242801541</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3">
+        <v>28330</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1">
+        <v>3242802026</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="3">
+        <v>27625</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3242801373</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="3">
+        <v>41717</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <v>3242802027</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="3">
+        <v>26939</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3242801192</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="3">
+        <v>41520</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <v>3242801134</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="3">
+        <v>26938</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3242801168</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="3">
+        <v>31344</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
+        <v>3242802023</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="3">
-        <v>30844</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3242801078</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="3">
-        <v>25436</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3242801369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="3">
-        <v>41033</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1">
-        <v>3242801131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="3">
-        <v>29481</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3242801541</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="3">
-        <v>28330</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <v>3242802026</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="3">
-        <v>27625</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3242801373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="3">
-        <v>41717</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1">
-        <v>3242802027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="3">
-        <v>26939</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3242801192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3">
-        <v>41520</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1">
-        <v>3242801134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="3">
-        <v>26938</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3242801168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="C50" s="3">
-        <v>31344</v>
+        <v>41755</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
-        <v>3242802023</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801135</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="3">
-        <v>41755</v>
+        <v>46300</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>3242801135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="1"/>
+      <c r="G51" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3">
-        <v>46300</v>
+        <v>46390</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3242801190</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="3">
-        <v>46390</v>
+        <v>35445</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <v>3242801129</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="3">
+        <v>46220</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3242801087</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44950</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1">
+        <v>3242801133</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="3">
+        <v>40368</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="1">
-        <v>3242801190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="3">
-        <v>35445</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1">
-        <v>3242801129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="3">
-        <v>46220</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="F56" s="1">
+        <v>3242801371</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="3">
+        <v>32444</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="1">
-        <v>3242801087</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="3">
-        <v>44950</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1">
-        <v>3242801133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="3">
-        <v>40368</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1">
+        <v>3242801189</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="3">
+        <v>41037</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1">
+        <v>3242801187</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="3">
+        <v>41339</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="1">
-        <v>3242801371</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="3">
-        <v>32444</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="1">
-        <v>3242801189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="3">
-        <v>41037</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="1"/>
       <c r="F59" s="1">
-        <v>3242801187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801549</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="3">
-        <v>41339</v>
+        <v>31043</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1">
-        <v>3242801549</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801123</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="3">
-        <v>31043</v>
+        <v>42777</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
-        <v>3242801123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801136</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3">
-        <v>42777</v>
+        <v>45449</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F62" s="1">
-        <v>3242801136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801191</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3">
-        <v>45449</v>
+        <v>33999</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F63" s="1">
-        <v>3242801191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801540</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="3">
-        <v>33999</v>
+        <v>41090</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1">
-        <v>3242801540</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242802022</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="3">
-        <v>41090</v>
+        <v>31085</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F65" s="1">
-        <v>3242802022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801169</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3">
-        <v>31085</v>
+        <v>32281</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <v>3242801169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801132</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3">
-        <v>32281</v>
+        <v>39331</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F67" s="1">
-        <v>3242801132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801188</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="3">
-        <v>39331</v>
+        <v>27723</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="1">
-        <v>3242801188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801375</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3">
-        <v>27723</v>
+        <v>32337</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F69" s="1">
-        <v>3242801375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801077</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="3">
-        <v>32337</v>
+        <v>31312</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F70" s="1">
-        <v>3242801077</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801544</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="3">
-        <v>31312</v>
+        <v>35434</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F71" s="1">
-        <v>3242801544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801186</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="3">
-        <v>35434</v>
+        <v>41821</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1">
-        <v>3242801186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801126</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="3">
-        <v>41821</v>
+        <v>41348</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F73" s="1">
-        <v>3242801126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801074</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="3">
+        <v>31223</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3242801547</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="3">
+        <v>40845</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3242801376</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="3">
+        <v>33457</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1">
+        <v>3242802017</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="3">
+        <v>35780</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3242801200</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="3">
+        <v>48643</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1">
+        <v>3242802019</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="3">
+        <v>807767</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3242801548</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="3">
-        <v>41348</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="C80" s="3">
+        <v>600872</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3242801076</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="3">
+        <v>807778</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3242801536</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="3">
+        <v>601163</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1">
+        <v>3242802026</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="3">
+        <v>600880</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="1">
-        <v>3242801074</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="3">
-        <v>31223</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="1">
-        <v>3242801547</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="3">
-        <v>40845</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="1">
-        <v>3242801376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="3">
-        <v>33457</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1">
-        <v>3242802017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="3">
-        <v>35780</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="1">
-        <v>3242801200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="3">
-        <v>48643</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1">
-        <v>3242802019</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="3">
-        <v>807767</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="1">
-        <v>3242801548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" s="3">
-        <v>600872</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="1">
-        <v>3242801076</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="3">
-        <v>807778</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="1">
-        <v>3242801536</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="3">
-        <v>601163</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1">
-        <v>3242802026</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F83" s="1"/>
+      <c r="G83" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C84" s="3">
-        <v>600880</v>
+        <v>807765</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3242801085</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="3">
-        <v>807765</v>
+        <v>807780</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F85" s="1">
-        <v>3242801085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801176</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" s="3">
-        <v>807780</v>
+        <v>807702</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1">
+        <v>3242802029</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F86" s="1">
-        <v>3242801176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="C87" s="3">
-        <v>807702</v>
+        <v>807770</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F87" s="1">
-        <v>3242802029</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801539</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C88" s="3">
-        <v>807770</v>
+        <v>600904</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1">
-        <v>3242801539</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801122</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" s="3">
-        <v>600904</v>
+        <v>600909</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1">
-        <v>3242801122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C90" s="3">
-        <v>600909</v>
+        <v>905120</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3242801076</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3">
-        <v>905120</v>
+        <v>600840</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1">
-        <v>3242801076</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242802028</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="3">
-        <v>600840</v>
+        <v>600841</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
         <v>3242802028</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="3">
-        <v>600841</v>
+        <v>600850</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
         <v>3242802028</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G93" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>600850</v>
+        <v>600857</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
         <v>3242802028</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="3">
-        <v>600857</v>
+        <v>600859</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
         <v>3242802028</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G95" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="3">
-        <v>600859</v>
+        <v>600862</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
         <v>3242802028</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>600862</v>
+        <v>600868</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
         <v>3242802028</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="3">
-        <v>600868</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1">
-        <v>3242802028</v>
+      <c r="G97" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D4210-55DA-4582-A856-C3F781FDCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3EA226-0BC8-4D1D-B6D4-B8295EAFC5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="130">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Cinsiyet</t>
+  </si>
+  <si>
+    <t>ALİ ŞENYURT</t>
   </si>
 </sst>
 </file>
@@ -886,24 +889,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>105</v>
       </c>
@@ -926,7 +929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -947,126 +950,124 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="3">
-        <v>30627</v>
+        <v>41452</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
+        <v>3242802020</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30627</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>3242801121</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="3">
-        <v>41146</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3242801082</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="3">
-        <v>32659</v>
+        <v>41146</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="1">
-        <v>3242801200</v>
+        <v>3242801082</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="3">
-        <v>35027</v>
+        <v>32659</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F6" s="1">
-        <v>3242801115</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801200</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="3">
-        <v>42642</v>
+        <v>35027</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>3242801360</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3242801115</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="3">
-        <v>38638</v>
+        <v>42642</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>108</v>
@@ -1075,80 +1076,84 @@
         <v>121</v>
       </c>
       <c r="F8" s="1">
+        <v>3242801360</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3">
+        <v>38638</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="1">
         <v>3242801362</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="G9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>44582</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="3">
-        <v>37472</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>3242801114</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="3">
-        <v>29517</v>
+        <v>37472</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>3242801114</v>
+      </c>
       <c r="G11" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="3">
-        <v>46005</v>
+        <v>29517</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>108</v>
@@ -1159,212 +1164,212 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="3">
-        <v>31404</v>
+        <v>46005</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3242801532</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="3">
-        <v>45713</v>
+        <v>31404</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1">
-        <v>3242802024</v>
+        <v>3242801532</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="3">
-        <v>30948</v>
+        <v>45713</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3242802024</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="3">
+        <v>30948</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3">
         <v>45725</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>3242801193</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="G17" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="3">
-        <v>39307</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>3242802018</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="3">
-        <v>33925</v>
+        <v>39307</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1">
-        <v>3242801185</v>
+        <v>3242802018</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="3">
+        <v>33925</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3242801185</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3">
         <v>44383</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>3242801071</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>41006</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>3242801201</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="3">
-        <v>41007</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="3">
-        <v>43446</v>
+        <v>41007</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>108</v>
@@ -1375,126 +1380,122 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43446</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="3">
-        <v>454746</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3242801163</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="3">
-        <v>454516</v>
+        <v>454746</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F24" s="1">
-        <v>3242801125</v>
+        <v>3242801163</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="3">
-        <v>454709</v>
+        <v>454516</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <v>3242801195</v>
+        <v>3242801125</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="3">
+        <v>454709</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3242801195</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3">
         <v>454710</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
         <v>3242802018</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="G27" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>31039</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3242801084</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="3">
-        <v>31164</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>108</v>
@@ -1503,88 +1504,88 @@
         <v>119</v>
       </c>
       <c r="F28" s="1">
+        <v>3242801084</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3">
+        <v>31164</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="1">
         <v>3242801073</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="G29" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>27048</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
         <v>3242801120</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="G30" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>23502</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>3242801365</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="G31" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="3">
-        <v>32414</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3242801538</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C32" s="3">
-        <v>31048</v>
+        <v>32414</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>108</v>
@@ -1593,21 +1594,21 @@
         <v>122</v>
       </c>
       <c r="F32" s="1">
-        <v>3242801537</v>
+        <v>3242801538</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="3">
-        <v>29172</v>
+        <v>31048</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>108</v>
@@ -1616,1263 +1617,1265 @@
         <v>122</v>
       </c>
       <c r="F33" s="1">
-        <v>3242801535</v>
+        <v>3242801537</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="3">
+        <v>29172</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3242801535</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="3">
         <v>26807</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>3242801197</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="G35" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="3">
-        <v>32400</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3242801546</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="3">
-        <v>28763</v>
+        <v>32400</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="1">
-        <v>3242801167</v>
+        <v>3242801546</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C37" s="3">
-        <v>31193</v>
+        <v>28763</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1">
-        <v>3242801081</v>
+        <v>3242801167</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="3">
-        <v>41762</v>
+        <v>31193</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1">
-        <v>3242801543</v>
+        <v>3242801081</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="3">
-        <v>28287</v>
+        <v>41762</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F39" s="1">
-        <v>3242801086</v>
+        <v>3242801543</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="3">
-        <v>25436</v>
+        <v>28287</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="1">
-        <v>3242801369</v>
+        <v>3242801086</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="3">
-        <v>41033</v>
+        <v>25436</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F41" s="1">
-        <v>3242801131</v>
+        <v>3242801369</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="3">
-        <v>29481</v>
+        <v>41033</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <v>3242801541</v>
+        <v>3242801131</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C43" s="3">
-        <v>28330</v>
+        <v>29481</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F43" s="1">
-        <v>3242802026</v>
+        <v>3242801541</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="3">
-        <v>27625</v>
+        <v>28330</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>3242801373</v>
+        <v>3242802026</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="3">
-        <v>41717</v>
+        <v>27625</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F45" s="1">
-        <v>3242802027</v>
+        <v>3242801373</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="3">
-        <v>26939</v>
+        <v>41717</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1">
-        <v>3242801192</v>
+        <v>3242802027</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="3">
-        <v>41520</v>
+        <v>26939</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F47" s="1">
-        <v>3242801134</v>
+        <v>3242801192</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="3">
+        <v>41520</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <v>3242801134</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="3">
         <v>26938</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>3242801168</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="G49" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C50" s="3">
         <v>31344</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1">
-        <v>3242802023</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="3">
-        <v>41755</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
-        <v>3242801135</v>
+        <v>3242802023</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C51" s="3">
-        <v>46300</v>
+        <v>41755</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>3242801135</v>
+      </c>
       <c r="G51" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C52" s="3">
-        <v>46390</v>
+        <v>46300</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3242801190</v>
-      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C53" s="3">
-        <v>35445</v>
+        <v>46390</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F53" s="1">
-        <v>3242801129</v>
+        <v>3242801190</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C54" s="3">
-        <v>46220</v>
+        <v>35445</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1">
-        <v>3242801087</v>
+        <v>3242801129</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C55" s="3">
-        <v>44950</v>
+        <v>46220</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F55" s="1">
-        <v>3242801133</v>
+        <v>3242801087</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C56" s="3">
-        <v>40368</v>
+        <v>44950</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1">
-        <v>3242801371</v>
+        <v>3242801133</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C57" s="3">
-        <v>32444</v>
+        <v>40368</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F57" s="1">
-        <v>3242801189</v>
+        <v>3242801371</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C58" s="3">
-        <v>41037</v>
+        <v>32444</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F58" s="1">
-        <v>3242801187</v>
+        <v>3242801189</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C59" s="3">
-        <v>41339</v>
+        <v>41037</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1">
-        <v>3242801549</v>
+        <v>3242801187</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C60" s="3">
-        <v>31043</v>
+        <v>41339</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F60" s="1">
-        <v>3242801123</v>
+        <v>3242801549</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="3">
-        <v>42777</v>
+        <v>31043</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
-        <v>3242801136</v>
+        <v>3242801123</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="3">
-        <v>45449</v>
+        <v>42777</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1">
-        <v>3242801191</v>
+        <v>3242801136</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C63" s="3">
-        <v>33999</v>
+        <v>45449</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F63" s="1">
-        <v>3242801540</v>
+        <v>3242801191</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="3">
-        <v>41090</v>
+        <v>33999</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F64" s="1">
-        <v>3242802022</v>
+        <v>3242801540</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C65" s="3">
-        <v>31085</v>
+        <v>41090</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1">
-        <v>3242801169</v>
+        <v>3242802022</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="3">
-        <v>32281</v>
+        <v>31085</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F66" s="1">
-        <v>3242801132</v>
+        <v>3242801169</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="3">
-        <v>39331</v>
+        <v>32281</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1">
-        <v>3242801188</v>
+        <v>3242801132</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="3">
-        <v>27723</v>
+        <v>39331</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1">
-        <v>3242801375</v>
+        <v>3242801188</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C69" s="3">
-        <v>32337</v>
+        <v>27723</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F69" s="1">
-        <v>3242801077</v>
+        <v>3242801375</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C70" s="3">
-        <v>31312</v>
+        <v>32337</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F70" s="1">
-        <v>3242801544</v>
+        <v>3242801077</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C71" s="3">
-        <v>35434</v>
+        <v>31312</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F71" s="1">
-        <v>3242801186</v>
+        <v>3242801544</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C72" s="3">
-        <v>41821</v>
+        <v>35434</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F72" s="1">
-        <v>3242801126</v>
+        <v>3242801186</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C73" s="3">
-        <v>41348</v>
+        <v>41821</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1">
-        <v>3242801074</v>
+        <v>3242801126</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="3">
-        <v>31223</v>
+        <v>41348</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F74" s="1">
-        <v>3242801547</v>
+        <v>3242801074</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="3">
-        <v>40845</v>
+        <v>31223</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F75" s="1">
-        <v>3242801376</v>
+        <v>3242801547</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C76" s="3">
+        <v>40845</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3242801376</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="3">
         <v>33457</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1">
+      <c r="D77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1">
         <v>3242802017</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="G77" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C78" s="3">
         <v>35780</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F78" s="1">
         <v>3242801200</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G78" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C79" s="3">
         <v>48643</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1">
+      <c r="D79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1">
         <v>3242802019</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="G79" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C80" s="3">
         <v>807767</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F80" s="1">
         <v>3242801548</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="G80" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C81" s="3">
         <v>600872</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F81" s="1">
         <v>3242801076</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="G81" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C82" s="3">
         <v>807778</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F82" s="1">
         <v>3242801536</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="G82" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="3">
-        <v>601163</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1">
-        <v>3242802026</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C83" s="3">
+        <v>601163</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1">
+        <v>3242802026</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="3">
         <v>600880</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="F84" s="1"/>
+      <c r="G84" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="3">
-        <v>807765</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="1">
-        <v>3242801085</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C85" s="3">
-        <v>807780</v>
+        <v>807765</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F85" s="1">
-        <v>3242801176</v>
+        <v>3242801085</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C86" s="3">
-        <v>807702</v>
+        <v>807780</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F86" s="1">
-        <v>3242802029</v>
+        <v>3242801176</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C87" s="3">
+        <v>807702</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1">
+        <v>3242802029</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="3">
         <v>807770</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F88" s="1">
         <v>3242801539</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="G88" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="3">
-        <v>600904</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1">
-        <v>3242801122</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="3">
+        <v>600904</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1">
+        <v>3242801122</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="3">
         <v>600909</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="3">
-        <v>905120</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>108</v>
@@ -2880,43 +2883,43 @@
       <c r="E90" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="1"/>
+      <c r="G90" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="3">
+        <v>905120</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="1">
         <v>3242801076</v>
       </c>
-      <c r="G90" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="G91" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="3">
-        <v>600840</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1">
-        <v>3242802028</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="3">
-        <v>600841</v>
+        <v>600840</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>108</v>
@@ -2926,18 +2929,18 @@
         <v>3242802028</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="3">
-        <v>600850</v>
+        <v>600841</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>108</v>
@@ -2947,18 +2950,18 @@
         <v>3242802028</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>600857</v>
+        <v>600850</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>108</v>
@@ -2971,15 +2974,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="3">
-        <v>600859</v>
+        <v>600857</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>108</v>
@@ -2992,15 +2995,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="3">
-        <v>600862</v>
+        <v>600859</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>108</v>
@@ -3013,15 +3016,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>600868</v>
+        <v>600862</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>108</v>
@@ -3034,8 +3037,29 @@
         <v>126</v>
       </c>
     </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3">
+        <v>600868</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1">
+        <v>3242802028</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3EA226-0BC8-4D1D-B6D4-B8295EAFC5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B2504-2DF0-42DB-A7B8-2120A8DEAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="128">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -333,9 +333,6 @@
     <t>S. Mühendis</t>
   </si>
   <si>
-    <t>Kontrol Memuru</t>
-  </si>
-  <si>
     <t>Bilgisayar İşletmeni</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
   </si>
   <si>
     <t>Kontrol Memuru(Tas.)</t>
-  </si>
-  <si>
-    <t>Tekniker(Kont. Mem.)</t>
   </si>
   <si>
     <t>Memur</t>
@@ -891,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,25 +902,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,35 +934,35 @@
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>3242801113</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3">
         <v>41452</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>3242802020</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -976,20 +970,20 @@
         <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3">
         <v>30627</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3242801121</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1003,16 +997,16 @@
         <v>41146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1">
         <v>3242801082</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1026,16 +1020,16 @@
         <v>32659</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1">
         <v>3242801200</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1049,14 +1043,14 @@
         <v>35027</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>3242801115</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,16 +1064,16 @@
         <v>42642</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1">
         <v>3242801360</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,16 +1087,16 @@
         <v>38638</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1">
         <v>3242801362</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1116,12 +1110,12 @@
         <v>44582</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1135,14 +1129,14 @@
         <v>37472</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>3242801114</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1156,12 +1150,12 @@
         <v>29517</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1175,12 +1169,12 @@
         <v>46005</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1194,16 +1188,16 @@
         <v>31404</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="1">
         <v>3242801532</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1217,16 +1211,16 @@
         <v>45713</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1">
         <v>3242802024</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,12 +1234,12 @@
         <v>30948</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1259,16 +1253,16 @@
         <v>45725</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="1">
         <v>3242801193</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1282,14 +1276,14 @@
         <v>39307</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>3242802018</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,16 +1297,16 @@
         <v>33925</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1">
         <v>3242801185</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1326,16 +1320,16 @@
         <v>44383</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1">
         <v>3242801071</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1343,22 +1337,22 @@
         <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3">
         <v>41006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
         <v>3242801201</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,17 +1366,17 @@
         <v>41007</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>97</v>
@@ -1391,12 +1385,14 @@
         <v>43446</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,16 +1406,16 @@
         <v>454746</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="1">
         <v>3242801163</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1433,14 +1429,14 @@
         <v>454516</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>3242801125</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1454,16 +1450,16 @@
         <v>454709</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1">
         <v>3242801195</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,14 +1473,14 @@
         <v>454710</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>3242802018</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1492,22 +1488,22 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3">
         <v>31039</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1">
         <v>3242801084</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1515,22 +1511,22 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3">
         <v>31164</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1">
         <v>3242801073</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,20 +1534,20 @@
         <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3">
         <v>27048</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>3242801120</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,22 +1555,22 @@
         <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3">
         <v>23502</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1">
         <v>3242801365</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1582,22 +1578,22 @@
         <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3">
         <v>32414</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="1">
         <v>3242801538</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,22 +1601,22 @@
         <v>57</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3">
         <v>31048</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1">
         <v>3242801537</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1628,22 +1624,22 @@
         <v>62</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3">
         <v>29172</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1">
         <v>3242801535</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1651,45 +1647,45 @@
         <v>90</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3">
         <v>26807</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1">
         <v>3242801197</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3">
         <v>32400</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1">
         <v>3242801546</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1697,22 +1693,22 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="3">
         <v>28763</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1">
         <v>3242801167</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1720,22 +1716,22 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3">
         <v>31193</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1">
         <v>3242801081</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1743,22 +1739,22 @@
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3">
         <v>41762</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="1">
         <v>3242801543</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1766,22 +1762,22 @@
         <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="3">
         <v>28287</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F40" s="1">
         <v>3242801086</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,22 +1785,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3">
         <v>25436</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" s="1">
         <v>3242801369</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1812,20 +1808,20 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3">
         <v>41033</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
         <v>3242801131</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1833,22 +1829,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3">
         <v>29481</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F43" s="1">
         <v>3242801541</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1856,20 +1852,20 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3">
         <v>28330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
         <v>3242802026</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1877,22 +1873,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="3">
         <v>27625</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" s="1">
         <v>3242801373</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1900,20 +1896,20 @@
         <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3">
         <v>41717</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1">
         <v>3242802027</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1921,22 +1917,22 @@
         <v>64</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3">
         <v>26939</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1">
         <v>3242801192</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1944,20 +1940,20 @@
         <v>86</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="3">
         <v>41520</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
         <v>3242801134</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1965,22 +1961,22 @@
         <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3">
         <v>26938</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F49" s="1">
         <v>3242801168</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1988,20 +1984,20 @@
         <v>20</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C50" s="3">
         <v>31344</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
         <v>3242802023</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,20 +2005,20 @@
         <v>0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="3">
         <v>41755</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
         <v>3242801135</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2030,18 +2026,18 @@
         <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="3">
         <v>46300</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2049,22 +2045,22 @@
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="3">
         <v>46390</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F53" s="1">
         <v>3242801190</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,20 +2068,20 @@
         <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="3">
         <v>35445</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1">
         <v>3242801129</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2093,22 +2089,22 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="3">
         <v>46220</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1">
         <v>3242801087</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2116,20 +2112,20 @@
         <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="3">
         <v>44950</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>3242801133</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2137,22 +2133,22 @@
         <v>32</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="3">
         <v>40368</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F57" s="1">
         <v>3242801371</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2160,22 +2156,22 @@
         <v>44</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="3">
         <v>32444</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F58" s="1">
         <v>3242801189</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2183,20 +2179,20 @@
         <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="3">
         <v>41037</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
         <v>3242801187</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2204,22 +2200,22 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="3">
         <v>41339</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F60" s="1">
         <v>3242801549</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2227,20 +2223,20 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3">
         <v>31043</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
         <v>3242801123</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,20 +2244,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="3">
         <v>42777</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
         <v>3242801136</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2269,22 +2265,22 @@
         <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" s="3">
         <v>45449</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F63" s="1">
         <v>3242801191</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2292,22 +2288,22 @@
         <v>65</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="3">
         <v>33999</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" s="1">
         <v>3242801540</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2315,20 +2311,20 @@
         <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3">
         <v>41090</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
         <v>3242802022</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2336,22 +2332,22 @@
         <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="3">
         <v>31085</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" s="1">
         <v>3242801169</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2359,20 +2355,20 @@
         <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="3">
         <v>32281</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1">
         <v>3242801132</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2380,22 +2376,22 @@
         <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3">
         <v>39331</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F68" s="1">
         <v>3242801188</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2403,22 +2399,22 @@
         <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3">
         <v>27723</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" s="1">
         <v>3242801375</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2426,22 +2422,22 @@
         <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" s="3">
         <v>32337</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F70" s="1">
         <v>3242801077</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2449,22 +2445,22 @@
         <v>77</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="3">
         <v>31312</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F71" s="1">
         <v>3242801544</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2472,22 +2468,22 @@
         <v>78</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="3">
         <v>35434</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" s="1">
         <v>3242801186</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2495,20 +2491,20 @@
         <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="3">
         <v>41821</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
         <v>3242801126</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2516,22 +2512,22 @@
         <v>82</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="3">
         <v>41348</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F74" s="1">
         <v>3242801074</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2539,22 +2535,22 @@
         <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="3">
         <v>31223</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F75" s="1">
         <v>3242801547</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2562,22 +2558,22 @@
         <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="3">
         <v>40845</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F76" s="1">
         <v>3242801376</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,20 +2581,20 @@
         <v>87</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3">
         <v>33457</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1">
         <v>3242802017</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2606,22 +2602,22 @@
         <v>93</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="3">
         <v>35780</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="1">
         <v>3242801200</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2629,20 +2625,20 @@
         <v>67</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C79" s="3">
         <v>48643</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
         <v>3242802019</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2650,22 +2646,22 @@
         <v>1</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C80" s="3">
         <v>807767</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F80" s="1">
         <v>3242801548</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2673,22 +2669,22 @@
         <v>4</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="3">
         <v>600872</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F81" s="1">
         <v>3242801076</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2696,22 +2692,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="3">
         <v>807778</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F82" s="1">
         <v>3242801536</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2719,20 +2715,20 @@
         <v>22</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="3">
         <v>601163</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1">
         <v>3242802026</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2740,43 +2736,43 @@
         <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="3">
         <v>600880</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="3">
         <v>807765</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F85" s="1">
         <v>3242801085</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2784,43 +2780,43 @@
         <v>36</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86" s="3">
         <v>807780</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F86" s="1">
         <v>3242801176</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="3">
         <v>807702</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1">
         <v>3242802029</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2828,22 +2824,22 @@
         <v>66</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C88" s="3">
         <v>807770</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="1">
         <v>3242801539</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2851,20 +2847,20 @@
         <v>74</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3">
         <v>600904</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1">
         <v>3242801122</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2872,20 +2868,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="3">
         <v>600909</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2893,22 +2889,22 @@
         <v>25</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C91" s="3">
         <v>905120</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F91" s="1">
         <v>3242801076</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2922,14 +2918,14 @@
         <v>600840</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
         <v>3242802028</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2943,14 +2939,14 @@
         <v>600841</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
         <v>3242802028</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,14 +2960,14 @@
         <v>600850</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
         <v>3242802028</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2985,14 +2981,14 @@
         <v>600857</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
         <v>3242802028</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3006,14 +3002,14 @@
         <v>600859</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
         <v>3242802028</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3027,14 +3023,14 @@
         <v>600862</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
         <v>3242802028</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3048,14 +3044,14 @@
         <v>600868</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
         <v>3242802028</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B2504-2DF0-42DB-A7B8-2120A8DEAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542C1A1-6B9B-4950-B2E1-916CEAE77FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MERSİN" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MERSİN!$E$1:$E$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="127">
   <si>
     <t>AHMET ÇELİK</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>ARZU ÜLKÜ</t>
-  </si>
-  <si>
-    <t>AYHAN KARADAYI</t>
   </si>
   <si>
     <t>AYŞE ÇAKICI PEKÇETİN</t>
@@ -883,18 +880,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="9"/>
@@ -902,585 +899,585 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C2" s="3">
         <v>44142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>3242801113</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3">
         <v>41452</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>3242802020</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3">
         <v>30627</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3242801121</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3">
         <v>41146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>3242801082</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3">
         <v>32659</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1">
         <v>3242801200</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3">
         <v>35027</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>3242801115</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3">
         <v>42642</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1">
         <v>3242801360</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3">
         <v>38638</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1">
         <v>3242801362</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="7">
         <v>44582</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3">
         <v>37472</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>3242801114</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3">
         <v>29517</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3">
         <v>46005</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3">
         <v>31404</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1">
         <v>3242801532</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3">
         <v>45713</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1">
         <v>3242802024</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3">
         <v>30948</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3">
         <v>45725</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="1">
         <v>3242801193</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3">
         <v>39307</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>3242802018</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3">
         <v>33925</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1">
         <v>3242801185</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3">
         <v>44383</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1">
         <v>3242801071</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3">
         <v>41006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1">
         <v>3242801201</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3">
         <v>41007</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3">
         <v>43446</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3">
         <v>454746</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1">
         <v>3242801163</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3">
         <v>454516</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>3242801125</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3">
         <v>454709</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1">
         <v>3242801195</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="3">
         <v>454710</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>3242802018</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,204 +1485,204 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3">
         <v>31039</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="1">
         <v>3242801084</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="3">
         <v>31164</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1">
         <v>3242801073</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3">
         <v>27048</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>3242801120</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3">
         <v>23502</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1">
         <v>3242801365</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3">
         <v>32414</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1">
         <v>3242801538</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3">
         <v>31048</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1">
         <v>3242801537</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3">
         <v>29172</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" s="1">
         <v>3242801535</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3">
         <v>26807</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1">
         <v>3242801197</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="3">
         <v>32400</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" s="1">
         <v>3242801546</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1693,45 +1690,45 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3">
         <v>28763</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
         <v>3242801167</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3">
-        <v>31193</v>
+        <v>41762</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1">
-        <v>3242801081</v>
+        <v>3242801543</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1739,325 +1736,323 @@
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3">
-        <v>41762</v>
+        <v>28287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F39" s="1">
-        <v>3242801543</v>
+        <v>3242801086</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="3">
-        <v>28287</v>
+        <v>25436</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1">
-        <v>3242801086</v>
+        <v>3242801369</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3">
-        <v>25436</v>
+        <v>41033</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1">
-        <v>3242801369</v>
+        <v>3242801131</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="3">
-        <v>41033</v>
+        <v>29481</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F42" s="1">
-        <v>3242801131</v>
+        <v>3242801541</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="3">
-        <v>29481</v>
+        <v>28330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <v>3242801541</v>
+        <v>3242802026</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3">
-        <v>28330</v>
+        <v>27625</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F44" s="1">
-        <v>3242802026</v>
+        <v>3242801373</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3">
-        <v>27625</v>
+        <v>41717</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <v>3242801373</v>
+        <v>3242802027</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3">
-        <v>41717</v>
+        <v>26939</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F46" s="1">
-        <v>3242802027</v>
+        <v>3242801192</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3">
-        <v>26939</v>
+        <v>41520</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <v>3242801192</v>
+        <v>3242801134</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3">
-        <v>41520</v>
+        <v>26938</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F48" s="1">
-        <v>3242801134</v>
+        <v>3242801168</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="3">
-        <v>26938</v>
+        <v>31344</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1">
-        <v>3242801168</v>
+        <v>3242802023</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C50" s="3">
-        <v>31344</v>
+        <v>41755</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
-        <v>3242802023</v>
+        <v>3242801135</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="3">
-        <v>41755</v>
+        <v>46300</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>3242801135</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3">
-        <v>46300</v>
+        <v>46390</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3242801190</v>
+      </c>
       <c r="G52" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="3">
-        <v>46390</v>
+        <v>35445</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1">
-        <v>3242801190</v>
+        <v>3242801129</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>124</v>
@@ -2068,131 +2063,133 @@
         <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="3">
-        <v>35445</v>
+        <v>46220</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F54" s="1">
-        <v>3242801129</v>
+        <v>3242801087</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="3">
-        <v>46220</v>
+        <v>44950</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1">
-        <v>3242801087</v>
+        <v>3242801133</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="3">
-        <v>44950</v>
+        <v>40368</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F56" s="1">
-        <v>3242801133</v>
+        <v>3242801371</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="3">
-        <v>40368</v>
+        <v>32444</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1">
-        <v>3242801371</v>
+        <v>3242801189</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="3">
-        <v>32444</v>
+        <v>41037</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1">
-        <v>3242801189</v>
+        <v>3242801187</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3">
-        <v>41037</v>
+        <v>41339</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F59" s="1">
-        <v>3242801187</v>
+        <v>3242801549</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2200,40 +2197,38 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" s="3">
-        <v>41339</v>
+        <v>31043</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1">
-        <v>3242801549</v>
+        <v>3242801123</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="3">
-        <v>31043</v>
+        <v>42777</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
-        <v>3242801123</v>
+        <v>3242801136</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>124</v>
@@ -2241,69 +2236,69 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="3">
-        <v>42777</v>
+        <v>45449</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F62" s="1">
-        <v>3242801136</v>
+        <v>3242801191</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" s="3">
-        <v>45449</v>
+        <v>33999</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F63" s="1">
-        <v>3242801191</v>
+        <v>3242801540</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="3">
-        <v>33999</v>
+        <v>41090</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1">
-        <v>3242801540</v>
+        <v>3242802022</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2311,40 +2306,40 @@
         <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="3">
-        <v>41090</v>
+        <v>31085</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F65" s="1">
-        <v>3242802022</v>
+        <v>3242801169</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="3">
-        <v>31085</v>
+        <v>32281</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <v>3242801169</v>
+        <v>3242801132</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>124</v>
@@ -2355,66 +2350,68 @@
         <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3">
-        <v>32281</v>
+        <v>39331</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F67" s="1">
-        <v>3242801132</v>
+        <v>3242801188</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="3">
-        <v>39331</v>
+        <v>27723</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F68" s="1">
-        <v>3242801188</v>
+        <v>3242801375</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="3">
-        <v>27723</v>
+        <v>32337</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F69" s="1">
-        <v>3242801375</v>
+        <v>3242801077</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,22 +2419,22 @@
         <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="3">
-        <v>32337</v>
+        <v>31312</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F70" s="1">
-        <v>3242801077</v>
+        <v>3242801544</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,42 +2442,40 @@
         <v>77</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="3">
-        <v>31312</v>
+        <v>35434</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F71" s="1">
-        <v>3242801544</v>
+        <v>3242801186</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="3">
-        <v>35434</v>
+        <v>41821</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1">
-        <v>3242801186</v>
+        <v>3242801126</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>124</v>
@@ -2491,20 +2486,22 @@
         <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="3">
-        <v>41821</v>
+        <v>41348</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F73" s="1">
-        <v>3242801126</v>
+        <v>3242801074</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2512,86 +2509,86 @@
         <v>82</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="3">
-        <v>41348</v>
+        <v>31223</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F74" s="1">
-        <v>3242801074</v>
+        <v>3242801547</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3">
-        <v>31223</v>
+        <v>40845</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F75" s="1">
-        <v>3242801547</v>
+        <v>3242801376</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="3">
-        <v>40845</v>
+        <v>33457</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1">
-        <v>3242801376</v>
+        <v>3242802017</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="3">
-        <v>33457</v>
+        <v>35780</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F77" s="1">
-        <v>3242802017</v>
+        <v>3242801200</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>124</v>
@@ -2599,115 +2596,113 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C78" s="3">
-        <v>35780</v>
+        <v>48643</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1">
-        <v>3242801200</v>
+        <v>3242802019</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C79" s="3">
-        <v>48643</v>
+        <v>807767</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F79" s="1">
-        <v>3242802019</v>
+        <v>3242801548</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C80" s="3">
-        <v>807767</v>
+        <v>600872</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F80" s="1">
-        <v>3242801548</v>
+        <v>3242801076</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C81" s="3">
-        <v>600872</v>
+        <v>807778</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F81" s="1">
-        <v>3242801076</v>
+        <v>3242801536</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C82" s="3">
-        <v>807778</v>
+        <v>601163</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1">
-        <v>3242801536</v>
+        <v>3242802026</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2715,128 +2710,128 @@
         <v>22</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="3">
-        <v>601163</v>
+        <v>600880</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1">
-        <v>3242802026</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C84" s="3">
-        <v>600880</v>
+        <v>807765</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3242801085</v>
+      </c>
       <c r="G84" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="3">
-        <v>807765</v>
+        <v>807780</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F85" s="1">
-        <v>3242801085</v>
+        <v>3242801176</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="3">
-        <v>807780</v>
+        <v>807702</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1">
+        <v>3242802029</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="1">
-        <v>3242801176</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="C87" s="3">
-        <v>807702</v>
+        <v>807770</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F87" s="1">
-        <v>3242802029</v>
+        <v>3242801539</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C88" s="3">
-        <v>807770</v>
+        <v>600904</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1">
-        <v>3242801539</v>
+        <v>3242801122</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>124</v>
@@ -2844,81 +2839,81 @@
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" s="3">
-        <v>600904</v>
+        <v>600909</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1">
-        <v>3242801122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C90" s="3">
-        <v>600909</v>
+        <v>905120</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F90" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3242801076</v>
+      </c>
       <c r="G90" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3">
-        <v>905120</v>
+        <v>600840</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1">
-        <v>3242801076</v>
+        <v>3242802028</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="3">
-        <v>600840</v>
+        <v>600841</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
@@ -2930,132 +2925,111 @@
     </row>
     <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="3">
-        <v>600841</v>
+        <v>600850</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
         <v>3242802028</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>600850</v>
+        <v>600857</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
         <v>3242802028</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="3">
-        <v>600857</v>
+        <v>600859</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
         <v>3242802028</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="3">
-        <v>600859</v>
+        <v>600862</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
         <v>3242802028</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>600862</v>
+        <v>600868</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
         <v>3242802028</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="3">
-        <v>600868</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1">
-        <v>3242802028</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>